--- a/app/webroot/hac/execute/Book1.xlsx
+++ b/app/webroot/hac/execute/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="341">
   <si>
     <t>Client A/C</t>
   </si>
@@ -65,787 +65,988 @@
     <t>Date</t>
   </si>
   <si>
+    <t>SEMLLECMF</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>5 000</t>
+  </si>
+  <si>
+    <t>4 208</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>Partially filled</t>
+  </si>
+  <si>
+    <t>29.877 K</t>
+  </si>
+  <si>
+    <t>FAA89296</t>
+  </si>
+  <si>
+    <t>SQURPHARMA</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Filled</t>
+  </si>
+  <si>
+    <t>102.960 K</t>
+  </si>
+  <si>
+    <t>FAA88883</t>
+  </si>
+  <si>
+    <t>HRTEX</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>1 385</t>
+  </si>
+  <si>
+    <t>64.463 K</t>
+  </si>
+  <si>
+    <t>FAA88733</t>
+  </si>
+  <si>
+    <t>Terminated</t>
+  </si>
+  <si>
+    <t>Replaced</t>
+  </si>
+  <si>
+    <t>FAA88228</t>
+  </si>
+  <si>
+    <t>ALIF</t>
+  </si>
+  <si>
+    <t>1 300</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>FAA87626</t>
+  </si>
+  <si>
+    <t>AIL</t>
+  </si>
+  <si>
+    <t>3 000</t>
+  </si>
+  <si>
+    <t>219.300 K</t>
+  </si>
+  <si>
+    <t>FAA84981</t>
+  </si>
+  <si>
+    <t>42 500</t>
+  </si>
+  <si>
+    <t>514.250 K</t>
+  </si>
+  <si>
+    <t>FAA84643</t>
+  </si>
+  <si>
+    <t>OIMEX</t>
+  </si>
+  <si>
+    <t>2 805</t>
+  </si>
+  <si>
+    <t>109.676 K</t>
+  </si>
+  <si>
+    <t>FAA83085</t>
+  </si>
+  <si>
+    <t>FAA82987</t>
+  </si>
+  <si>
+    <t>KEYACOSMET</t>
+  </si>
+  <si>
+    <t>1 000</t>
+  </si>
+  <si>
+    <t>FAA81685</t>
+  </si>
+  <si>
+    <t>KTL</t>
+  </si>
+  <si>
+    <t>13.300 K</t>
+  </si>
+  <si>
+    <t>FAA81516</t>
+  </si>
+  <si>
+    <t>BBSCABLES</t>
+  </si>
+  <si>
+    <t>43.242 K</t>
+  </si>
+  <si>
+    <t>FAA80843</t>
+  </si>
+  <si>
+    <t>ISLAMIBANK</t>
+  </si>
+  <si>
+    <t>10 000</t>
+  </si>
+  <si>
+    <t>261.000 K</t>
+  </si>
+  <si>
+    <t>FAA80602</t>
+  </si>
+  <si>
+    <t>KDSALTD</t>
+  </si>
+  <si>
+    <t>2 000</t>
+  </si>
+  <si>
+    <t>109.200 K</t>
+  </si>
+  <si>
+    <t>FAA80284</t>
+  </si>
+  <si>
+    <t>GOLDENSON</t>
+  </si>
+  <si>
+    <t>FAA79566</t>
+  </si>
+  <si>
+    <t>7.100 K</t>
+  </si>
+  <si>
+    <t>FAA79434</t>
+  </si>
+  <si>
+    <t>FAA79130</t>
+  </si>
+  <si>
+    <t>DESHBANDHU</t>
+  </si>
+  <si>
+    <t>FAA78447</t>
+  </si>
+  <si>
+    <t>CENTRALPHL</t>
+  </si>
+  <si>
+    <t>1 500</t>
+  </si>
+  <si>
+    <t>22.800 K</t>
+  </si>
+  <si>
+    <t>FAA78085</t>
+  </si>
+  <si>
+    <t>GSPFINANCE</t>
+  </si>
+  <si>
+    <t>8.840 K</t>
+  </si>
+  <si>
+    <t>FAA77142</t>
+  </si>
+  <si>
+    <t>SAIHAMCOT</t>
+  </si>
+  <si>
+    <t>12.900 K</t>
+  </si>
+  <si>
+    <t>FAA77015</t>
+  </si>
+  <si>
+    <t>APEXSPINN</t>
+  </si>
+  <si>
+    <t>15.380 K</t>
+  </si>
+  <si>
+    <t>FAA74593</t>
+  </si>
+  <si>
+    <t>15.350 K</t>
+  </si>
+  <si>
+    <t>FAA74564</t>
+  </si>
+  <si>
+    <t>PARAMOUNT</t>
+  </si>
+  <si>
+    <t>9.050 K</t>
+  </si>
+  <si>
+    <t>FAA74165</t>
+  </si>
+  <si>
+    <t>MAKSONSPIN</t>
+  </si>
+  <si>
+    <t>12.600 K</t>
+  </si>
+  <si>
+    <t>FAA74050</t>
+  </si>
+  <si>
+    <t>GENNEXT</t>
+  </si>
+  <si>
+    <t>FAA74008</t>
+  </si>
+  <si>
+    <t>SAMORITA</t>
+  </si>
+  <si>
+    <t>FAA73955</t>
+  </si>
+  <si>
+    <t>FAA73860</t>
+  </si>
+  <si>
+    <t>ICBIBANK</t>
+  </si>
+  <si>
+    <t>5 365</t>
+  </si>
+  <si>
+    <t>FAA73823</t>
+  </si>
+  <si>
+    <t>FARCHEM</t>
+  </si>
+  <si>
+    <t>8.350 K</t>
+  </si>
+  <si>
+    <t>FAA73770</t>
+  </si>
+  <si>
+    <t>NCCBANK</t>
+  </si>
+  <si>
+    <t>16.700 K</t>
+  </si>
+  <si>
+    <t>FAA73671</t>
+  </si>
+  <si>
+    <t>FAA73658</t>
+  </si>
+  <si>
+    <t>OLYMPIC</t>
+  </si>
+  <si>
+    <t>2.500 K</t>
+  </si>
+  <si>
+    <t>FAA70748</t>
+  </si>
+  <si>
+    <t>FAA69028</t>
+  </si>
+  <si>
+    <t>LHBL</t>
+  </si>
+  <si>
+    <t>FAA67264</t>
+  </si>
+  <si>
+    <t>ZAHEENSPIN</t>
+  </si>
+  <si>
+    <t>1 805</t>
+  </si>
+  <si>
+    <t>Canceled</t>
+  </si>
+  <si>
+    <t>FAA66629</t>
+  </si>
+  <si>
+    <t>18.400 K</t>
+  </si>
+  <si>
+    <t>FAA66557</t>
+  </si>
+  <si>
+    <t>NPOLYMAR</t>
+  </si>
+  <si>
+    <t>7.840 K</t>
+  </si>
+  <si>
+    <t>FAA66478</t>
+  </si>
+  <si>
+    <t>2 167</t>
+  </si>
+  <si>
+    <t>48.107 K</t>
+  </si>
+  <si>
+    <t>FAA66360</t>
+  </si>
+  <si>
+    <t>FAA65851</t>
+  </si>
+  <si>
+    <t>FAA65608</t>
+  </si>
+  <si>
+    <t>1.331 K</t>
+  </si>
+  <si>
+    <t>FAA65512</t>
+  </si>
+  <si>
+    <t>8.400 K</t>
+  </si>
+  <si>
+    <t>FAA65064</t>
+  </si>
+  <si>
+    <t>ANLIMAYARN</t>
+  </si>
+  <si>
+    <t>FAA64119</t>
+  </si>
+  <si>
+    <t>13.150 K</t>
+  </si>
+  <si>
+    <t>FAA63441</t>
+  </si>
+  <si>
+    <t>9 500</t>
+  </si>
+  <si>
+    <t>114.950 K</t>
+  </si>
+  <si>
+    <t>FAA60319</t>
+  </si>
+  <si>
+    <t>FAA59951</t>
+  </si>
+  <si>
+    <t>POWERGRID</t>
+  </si>
+  <si>
+    <t>15.540 K</t>
+  </si>
+  <si>
+    <t>FAA58446</t>
+  </si>
+  <si>
+    <t>RDFOOD</t>
+  </si>
+  <si>
+    <t>1.596 K</t>
+  </si>
+  <si>
+    <t>FAA58254</t>
+  </si>
+  <si>
+    <t>MERCANBANK</t>
+  </si>
+  <si>
+    <t>1.332 K</t>
+  </si>
+  <si>
+    <t>FAA58026</t>
+  </si>
+  <si>
+    <t>CITYBANK</t>
+  </si>
+  <si>
+    <t>4.800 K</t>
+  </si>
+  <si>
+    <t>FAA56670</t>
+  </si>
+  <si>
+    <t>LANKABAFIN</t>
+  </si>
+  <si>
+    <t>5.180 K</t>
+  </si>
+  <si>
+    <t>FAA56505</t>
+  </si>
+  <si>
+    <t>UNIONCAP</t>
+  </si>
+  <si>
+    <t>1.370 K</t>
+  </si>
+  <si>
+    <t>FAA56458</t>
+  </si>
+  <si>
+    <t>BRACBANK</t>
+  </si>
+  <si>
+    <t>FAA55148</t>
+  </si>
+  <si>
+    <t>35.500 K</t>
+  </si>
+  <si>
+    <t>FAA55080</t>
+  </si>
+  <si>
+    <t>11.894 K</t>
+  </si>
+  <si>
+    <t>FAA55020</t>
+  </si>
+  <si>
+    <t>BARKAPOWER</t>
+  </si>
+  <si>
+    <t>47.400 K</t>
+  </si>
+  <si>
+    <t>FAA53226</t>
+  </si>
+  <si>
+    <t>YPL</t>
+  </si>
+  <si>
+    <t>1.500 K</t>
+  </si>
+  <si>
+    <t>FAA52432</t>
+  </si>
+  <si>
+    <t>108.800 K</t>
+  </si>
+  <si>
+    <t>FAA52368</t>
+  </si>
+  <si>
+    <t>BDFINANCE</t>
+  </si>
+  <si>
+    <t>FAA51620</t>
+  </si>
+  <si>
+    <t>98.550 K</t>
+  </si>
+  <si>
+    <t>FAA51348</t>
+  </si>
+  <si>
+    <t>FAA51095</t>
+  </si>
+  <si>
+    <t>OAL</t>
+  </si>
+  <si>
+    <t>28.000 K</t>
+  </si>
+  <si>
+    <t>FAA48626</t>
+  </si>
+  <si>
+    <t>6 000</t>
+  </si>
+  <si>
+    <t>45.000 K</t>
+  </si>
+  <si>
+    <t>FAA48493</t>
+  </si>
+  <si>
+    <t>IDLC</t>
+  </si>
+  <si>
+    <t>FAA47615</t>
+  </si>
+  <si>
+    <t>FAA46241</t>
+  </si>
+  <si>
     <t>SOUTHEASTB</t>
   </si>
   <si>
-    <t>Buy</t>
-  </si>
-  <si>
-    <t>2 000</t>
-  </si>
-  <si>
-    <t>Terminated</t>
+    <t>FAA46188</t>
+  </si>
+  <si>
+    <t>22.156 K</t>
+  </si>
+  <si>
+    <t>FAA42465</t>
+  </si>
+  <si>
+    <t>FAA42290</t>
+  </si>
+  <si>
+    <t>FAA42206</t>
+  </si>
+  <si>
+    <t>BBS</t>
+  </si>
+  <si>
+    <t>1 103</t>
+  </si>
+  <si>
+    <t>FAA40843</t>
+  </si>
+  <si>
+    <t>ABBANK</t>
+  </si>
+  <si>
+    <t>67.500 K</t>
+  </si>
+  <si>
+    <t>FAA40745</t>
+  </si>
+  <si>
+    <t>11.900 K</t>
+  </si>
+  <si>
+    <t>FAA40609</t>
+  </si>
+  <si>
+    <t>SINGERBD</t>
+  </si>
+  <si>
+    <t>3 100</t>
+  </si>
+  <si>
+    <t>721.990 K</t>
+  </si>
+  <si>
+    <t>FAA40333</t>
+  </si>
+  <si>
+    <t>FAA39338</t>
+  </si>
+  <si>
+    <t>CNATEX</t>
+  </si>
+  <si>
+    <t>FAA38795</t>
+  </si>
+  <si>
+    <t>FAA38739</t>
+  </si>
+  <si>
+    <t>FAA38177</t>
+  </si>
+  <si>
+    <t>DACCADYE</t>
+  </si>
+  <si>
+    <t>32.500 K</t>
+  </si>
+  <si>
+    <t>FAA37616</t>
+  </si>
+  <si>
+    <t>4 300</t>
+  </si>
+  <si>
+    <t>58.480 K</t>
+  </si>
+  <si>
+    <t>FAA37447</t>
+  </si>
+  <si>
+    <t>NBL</t>
+  </si>
+  <si>
+    <t>FAA37295</t>
+  </si>
+  <si>
+    <t>IFIC</t>
+  </si>
+  <si>
+    <t>FAA36890</t>
+  </si>
+  <si>
+    <t>FAA36531</t>
+  </si>
+  <si>
+    <t>13 000</t>
+  </si>
+  <si>
+    <t>156.000 K</t>
+  </si>
+  <si>
+    <t>FAA36322</t>
+  </si>
+  <si>
+    <t>109.500 K</t>
+  </si>
+  <si>
+    <t>FAA35276</t>
+  </si>
+  <si>
+    <t>FAA34876</t>
+  </si>
+  <si>
+    <t>9.176 K</t>
+  </si>
+  <si>
+    <t>FAA34202</t>
+  </si>
+  <si>
+    <t>220.600 K</t>
+  </si>
+  <si>
+    <t>FAA33219</t>
+  </si>
+  <si>
+    <t>FAA32789</t>
+  </si>
+  <si>
+    <t>FAA32177</t>
+  </si>
+  <si>
+    <t>FAA31993</t>
+  </si>
+  <si>
+    <t>APOLOISPAT</t>
+  </si>
+  <si>
+    <t>FAA29505</t>
+  </si>
+  <si>
+    <t>DELTASPINN</t>
+  </si>
+  <si>
+    <t>9 000</t>
+  </si>
+  <si>
+    <t>72.000 K</t>
+  </si>
+  <si>
+    <t>FAA29361</t>
+  </si>
+  <si>
+    <t>POPULAR1MF</t>
+  </si>
+  <si>
+    <t>FAA27272</t>
+  </si>
+  <si>
+    <t>MPETROLEUM</t>
+  </si>
+  <si>
+    <t>3.876 K</t>
+  </si>
+  <si>
+    <t>FAA26614</t>
+  </si>
+  <si>
+    <t>8 100</t>
+  </si>
+  <si>
+    <t>133.650 K</t>
+  </si>
+  <si>
+    <t>FAA26441</t>
+  </si>
+  <si>
+    <t>9.520 K</t>
+  </si>
+  <si>
+    <t>FAA24830</t>
+  </si>
+  <si>
+    <t>BDTHAI</t>
+  </si>
+  <si>
+    <t>18.560 K</t>
+  </si>
+  <si>
+    <t>FAA24714</t>
+  </si>
+  <si>
+    <t>FAA24565</t>
+  </si>
+  <si>
+    <t>35.000 K</t>
+  </si>
+  <si>
+    <t>FAA24237</t>
+  </si>
+  <si>
+    <t>FAA24107</t>
+  </si>
+  <si>
+    <t>FAA23987</t>
+  </si>
+  <si>
+    <t>SHASHADNIM</t>
+  </si>
+  <si>
+    <t>64.000 K</t>
+  </si>
+  <si>
+    <t>FAA23950</t>
+  </si>
+  <si>
+    <t>FAA23170</t>
+  </si>
+  <si>
+    <t>23.100 K</t>
+  </si>
+  <si>
+    <t>FAA22857</t>
+  </si>
+  <si>
+    <t>CVOPRL</t>
+  </si>
+  <si>
+    <t>40.934 K</t>
+  </si>
+  <si>
+    <t>FAA22393</t>
+  </si>
+  <si>
+    <t>61.470 K</t>
+  </si>
+  <si>
+    <t>FAA22269</t>
+  </si>
+  <si>
+    <t>40.520 K</t>
+  </si>
+  <si>
+    <t>FAA22108</t>
+  </si>
+  <si>
+    <t>14.687 K</t>
+  </si>
+  <si>
+    <t>FAA21975</t>
+  </si>
+  <si>
+    <t>1.400 K</t>
+  </si>
+  <si>
+    <t>FAA21802</t>
+  </si>
+  <si>
+    <t>FAA21738</t>
+  </si>
+  <si>
+    <t>23.000 K</t>
+  </si>
+  <si>
+    <t>FAA21005</t>
+  </si>
+  <si>
+    <t>3.210 K</t>
+  </si>
+  <si>
+    <t>FAA20869</t>
+  </si>
+  <si>
+    <t>SPCL</t>
+  </si>
+  <si>
+    <t>5 786</t>
   </si>
   <si>
     <t>Rejected</t>
   </si>
   <si>
-    <t>FAA87181</t>
-  </si>
-  <si>
-    <t>1 000</t>
-  </si>
-  <si>
-    <t>FAA87166</t>
-  </si>
-  <si>
-    <t>UPGDCL</t>
-  </si>
-  <si>
-    <t>Sell</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Filled</t>
-  </si>
-  <si>
-    <t>326.300 K</t>
-  </si>
-  <si>
-    <t>FAA86803</t>
-  </si>
-  <si>
-    <t>ANLIMAYARN</t>
-  </si>
-  <si>
-    <t>8.580 K</t>
-  </si>
-  <si>
-    <t>FAA86385</t>
-  </si>
-  <si>
-    <t>Canceled</t>
-  </si>
-  <si>
-    <t>FAA86042</t>
-  </si>
-  <si>
-    <t>GSPFINANCE</t>
-  </si>
-  <si>
-    <t>Working</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>FAA85900</t>
+    <t>FAA20756</t>
   </si>
   <si>
     <t>AMANFEED</t>
   </si>
   <si>
-    <t>FAA85656</t>
-  </si>
-  <si>
-    <t>FAA84831</t>
-  </si>
-  <si>
-    <t>ICBIBANK</t>
-  </si>
-  <si>
-    <t>5 365</t>
-  </si>
-  <si>
-    <t>FAA84369</t>
-  </si>
-  <si>
-    <t>PIONEERINS</t>
-  </si>
-  <si>
-    <t>FAA84194</t>
-  </si>
-  <si>
-    <t>DUTCHBANGL</t>
-  </si>
-  <si>
-    <t>FAA84056</t>
-  </si>
-  <si>
-    <t>CVOPRL</t>
-  </si>
-  <si>
-    <t>18.310 K</t>
-  </si>
-  <si>
-    <t>FAA83809</t>
-  </si>
-  <si>
-    <t>Replaced</t>
-  </si>
-  <si>
-    <t>FAA83669</t>
-  </si>
-  <si>
-    <t>FAA83390</t>
-  </si>
-  <si>
-    <t>DSSL</t>
-  </si>
-  <si>
-    <t>FAA83020</t>
-  </si>
-  <si>
-    <t>MLDYEING</t>
-  </si>
-  <si>
-    <t>5.220 K</t>
-  </si>
-  <si>
-    <t>FAA82811</t>
-  </si>
-  <si>
-    <t>FAA81702</t>
-  </si>
-  <si>
-    <t>IMAMBUTTON</t>
-  </si>
-  <si>
-    <t>FAA80910</t>
-  </si>
-  <si>
-    <t>BARKAPOWER</t>
-  </si>
-  <si>
-    <t>5 885</t>
-  </si>
-  <si>
-    <t>4 775</t>
-  </si>
-  <si>
-    <t>Partially filled</t>
-  </si>
-  <si>
-    <t>1 110</t>
-  </si>
-  <si>
-    <t>142.773 K</t>
-  </si>
-  <si>
-    <t>FAA80847</t>
-  </si>
-  <si>
-    <t>FASFIN</t>
-  </si>
-  <si>
-    <t>FAA80552</t>
-  </si>
-  <si>
-    <t>APOLOISPAT</t>
-  </si>
-  <si>
-    <t>2.730 K</t>
-  </si>
-  <si>
-    <t>FAA80031</t>
-  </si>
-  <si>
-    <t>IDLC</t>
-  </si>
-  <si>
-    <t>FAA79977</t>
-  </si>
-  <si>
-    <t>14.420 K</t>
-  </si>
-  <si>
-    <t>FAA79910</t>
+    <t>20.990 K</t>
+  </si>
+  <si>
+    <t>FAA20508</t>
+  </si>
+  <si>
+    <t>9.150 K</t>
+  </si>
+  <si>
+    <t>FAA20358</t>
+  </si>
+  <si>
+    <t>FAA20344</t>
+  </si>
+  <si>
+    <t>JAMUNABANK</t>
+  </si>
+  <si>
+    <t>5.820 K</t>
+  </si>
+  <si>
+    <t>FAA20161</t>
+  </si>
+  <si>
+    <t>5.790 K</t>
+  </si>
+  <si>
+    <t>FAA20078</t>
+  </si>
+  <si>
+    <t>ARAMIT</t>
+  </si>
+  <si>
+    <t>18.801 K</t>
+  </si>
+  <si>
+    <t>FAA19366</t>
+  </si>
+  <si>
+    <t>FAA18691</t>
+  </si>
+  <si>
+    <t>44.000 K</t>
+  </si>
+  <si>
+    <t>FAA17543</t>
+  </si>
+  <si>
+    <t>22.300 K</t>
+  </si>
+  <si>
+    <t>FAA17188</t>
   </si>
   <si>
     <t>BEXIMCO</t>
   </si>
   <si>
-    <t>2.640 K</t>
-  </si>
-  <si>
-    <t>FAA79499</t>
-  </si>
-  <si>
-    <t>RSRMSTEEL</t>
-  </si>
-  <si>
-    <t>FAA79202</t>
-  </si>
-  <si>
-    <t>FAA79044</t>
-  </si>
-  <si>
-    <t>FAA78470</t>
-  </si>
-  <si>
-    <t>SQURPHARMA</t>
-  </si>
-  <si>
-    <t>FAA77788</t>
-  </si>
-  <si>
-    <t>FAA77687</t>
-  </si>
-  <si>
-    <t>FAA77627</t>
-  </si>
-  <si>
-    <t>FAA77493</t>
-  </si>
-  <si>
-    <t>LHBL</t>
-  </si>
-  <si>
-    <t>FAA77292</t>
-  </si>
-  <si>
-    <t>FAA77083</t>
-  </si>
-  <si>
-    <t>FAA76674</t>
-  </si>
-  <si>
-    <t>FAA75031</t>
-  </si>
-  <si>
-    <t>FAA74399</t>
-  </si>
-  <si>
-    <t>FAA74268</t>
-  </si>
-  <si>
-    <t>2 418</t>
-  </si>
-  <si>
-    <t>FAA74198</t>
-  </si>
-  <si>
-    <t>1 150</t>
-  </si>
-  <si>
-    <t>FAA72853</t>
-  </si>
-  <si>
-    <t>5 900</t>
-  </si>
-  <si>
-    <t>FAA71975</t>
-  </si>
-  <si>
-    <t>KPCL</t>
-  </si>
-  <si>
-    <t>33.050 K</t>
-  </si>
-  <si>
-    <t>FAA70371</t>
-  </si>
-  <si>
-    <t>FAA69703</t>
-  </si>
-  <si>
-    <t>FAA69665</t>
-  </si>
-  <si>
-    <t>FAA69305</t>
-  </si>
-  <si>
-    <t>ISLAMIINS</t>
-  </si>
-  <si>
-    <t>24.200 K</t>
-  </si>
-  <si>
-    <t>FAA68540</t>
-  </si>
-  <si>
-    <t>FAA68424</t>
-  </si>
-  <si>
-    <t>FAA68360</t>
-  </si>
-  <si>
-    <t>FAA68201</t>
-  </si>
-  <si>
-    <t>LIBRAINFU</t>
-  </si>
-  <si>
-    <t>1 018.4000</t>
-  </si>
-  <si>
-    <t>10.184 K</t>
-  </si>
-  <si>
-    <t>FAA66460</t>
-  </si>
-  <si>
-    <t>SUMITPOWER</t>
-  </si>
-  <si>
-    <t>FAA66297</t>
-  </si>
-  <si>
-    <t>PDL</t>
-  </si>
-  <si>
-    <t>33.800 K</t>
-  </si>
-  <si>
-    <t>FAA64832</t>
-  </si>
-  <si>
-    <t>AFTABAUTO</t>
-  </si>
-  <si>
-    <t>3 712</t>
-  </si>
-  <si>
-    <t>FAA59551</t>
-  </si>
-  <si>
-    <t>GENNEXT</t>
-  </si>
-  <si>
-    <t>FAA56706</t>
-  </si>
-  <si>
-    <t>BDTHAI</t>
-  </si>
-  <si>
-    <t>1 981</t>
-  </si>
-  <si>
-    <t>43.780 K</t>
-  </si>
-  <si>
-    <t>FAA55816</t>
-  </si>
-  <si>
-    <t>1.589 K</t>
-  </si>
-  <si>
-    <t>FAA55611</t>
-  </si>
-  <si>
-    <t>SHAHJABANK</t>
-  </si>
-  <si>
-    <t>FAA55165</t>
-  </si>
-  <si>
-    <t>FEKDIL</t>
-  </si>
-  <si>
-    <t>15.700 K</t>
-  </si>
-  <si>
-    <t>FAA54380</t>
-  </si>
-  <si>
-    <t>ZAHEENSPIN</t>
-  </si>
-  <si>
-    <t>1 805</t>
-  </si>
-  <si>
-    <t>20.938 K</t>
-  </si>
-  <si>
-    <t>FAA54019</t>
-  </si>
-  <si>
-    <t>TITASGAS</t>
-  </si>
-  <si>
-    <t>14.920 K</t>
-  </si>
-  <si>
-    <t>FAA51725</t>
-  </si>
-  <si>
-    <t>SAIHAMTEX</t>
-  </si>
-  <si>
-    <t>10.740 K</t>
-  </si>
-  <si>
-    <t>FAA51615</t>
-  </si>
-  <si>
-    <t>NBL</t>
-  </si>
-  <si>
-    <t>10.300 K</t>
-  </si>
-  <si>
-    <t>FAA51487</t>
-  </si>
-  <si>
-    <t>GP</t>
-  </si>
-  <si>
-    <t>18.300 K</t>
-  </si>
-  <si>
-    <t>FAA51410</t>
-  </si>
-  <si>
-    <t>ARAMIT</t>
-  </si>
-  <si>
-    <t>18.599 K</t>
-  </si>
-  <si>
-    <t>FAA49445</t>
-  </si>
-  <si>
-    <t>KEYACOSMET</t>
-  </si>
-  <si>
-    <t>FAA48153</t>
-  </si>
-  <si>
-    <t>FORTUNE</t>
-  </si>
-  <si>
-    <t>23.999 K</t>
-  </si>
-  <si>
-    <t>FAA48083</t>
-  </si>
-  <si>
-    <t>FAREASTLIF</t>
-  </si>
-  <si>
-    <t>1.495 K</t>
-  </si>
-  <si>
-    <t>FAA47773</t>
-  </si>
-  <si>
-    <t>124.800 K</t>
-  </si>
-  <si>
-    <t>FAA47728</t>
-  </si>
-  <si>
-    <t>3 000</t>
-  </si>
-  <si>
-    <t>187.500 K</t>
-  </si>
-  <si>
-    <t>FAA47674</t>
-  </si>
-  <si>
-    <t>ITC</t>
-  </si>
-  <si>
-    <t>20.077 K</t>
-  </si>
-  <si>
-    <t>FAA46419</t>
-  </si>
-  <si>
-    <t>BBS</t>
-  </si>
-  <si>
-    <t>5 746</t>
-  </si>
-  <si>
-    <t>178.126 K</t>
-  </si>
-  <si>
-    <t>FAA45165</t>
-  </si>
-  <si>
-    <t>5.100 K</t>
-  </si>
-  <si>
-    <t>FAA44567</t>
-  </si>
-  <si>
-    <t>FAA43343</t>
-  </si>
-  <si>
-    <t>FAA43141</t>
-  </si>
-  <si>
-    <t>4.300 K</t>
-  </si>
-  <si>
-    <t>FAA42729</t>
-  </si>
-  <si>
-    <t>BDCOM</t>
-  </si>
-  <si>
-    <t>16.250 K</t>
-  </si>
-  <si>
-    <t>FAA40628</t>
-  </si>
-  <si>
-    <t>NURANI</t>
-  </si>
-  <si>
-    <t>17.100 K</t>
-  </si>
-  <si>
-    <t>FAA40428</t>
-  </si>
-  <si>
-    <t>BRACBANK</t>
-  </si>
-  <si>
-    <t>1 070</t>
-  </si>
-  <si>
-    <t>80.250 K</t>
-  </si>
-  <si>
-    <t>FAA40074</t>
-  </si>
-  <si>
-    <t>AIL</t>
-  </si>
-  <si>
-    <t>FAA38290</t>
-  </si>
-  <si>
-    <t>1 031.0000</t>
-  </si>
-  <si>
-    <t>10.310 K</t>
-  </si>
-  <si>
-    <t>FAA38199</t>
-  </si>
-  <si>
-    <t>FAA37765</t>
-  </si>
-  <si>
-    <t>FBFIF</t>
-  </si>
-  <si>
-    <t>1 454</t>
-  </si>
-  <si>
-    <t>FAA36138</t>
-  </si>
-  <si>
-    <t>FAA34625</t>
-  </si>
-  <si>
-    <t>6.285 K</t>
-  </si>
-  <si>
-    <t>FAA34316</t>
-  </si>
-  <si>
-    <t>8.920 K</t>
-  </si>
-  <si>
-    <t>FAA32633</t>
-  </si>
-  <si>
-    <t>GBBPOWER</t>
-  </si>
-  <si>
-    <t>FAA32560</t>
-  </si>
-  <si>
-    <t>ORIONINFU</t>
-  </si>
-  <si>
-    <t>FAA32486</t>
-  </si>
-  <si>
-    <t>MITHUNKNIT</t>
-  </si>
-  <si>
-    <t>FAA32410</t>
-  </si>
-  <si>
-    <t>FAA30631</t>
-  </si>
-  <si>
-    <t>FAA30217</t>
-  </si>
-  <si>
-    <t>MERCANBANK</t>
-  </si>
-  <si>
-    <t>FAA29800</t>
-  </si>
-  <si>
-    <t>FAA29314</t>
-  </si>
-  <si>
-    <t>LANKABAFIN</t>
-  </si>
-  <si>
-    <t>1.240 K</t>
-  </si>
-  <si>
-    <t>FAA26810</t>
-  </si>
-  <si>
-    <t>SALAMCRST</t>
-  </si>
-  <si>
-    <t>2 080</t>
-  </si>
-  <si>
-    <t>61.776 K</t>
-  </si>
-  <si>
-    <t>FAA25489</t>
-  </si>
-  <si>
-    <t>FAA24123</t>
-  </si>
-  <si>
-    <t>1 266</t>
-  </si>
-  <si>
-    <t>43.171 K</t>
-  </si>
-  <si>
-    <t>FAA22195</t>
-  </si>
-  <si>
-    <t>KDSALTD</t>
-  </si>
-  <si>
-    <t>3.871 K</t>
-  </si>
-  <si>
-    <t>FAA22098</t>
-  </si>
-  <si>
-    <t>CONTININS</t>
-  </si>
-  <si>
-    <t>14.570 K</t>
-  </si>
-  <si>
-    <t>FAA21271</t>
-  </si>
-  <si>
-    <t>77.700 K</t>
-  </si>
-  <si>
-    <t>FAA17769</t>
+    <t>2 793</t>
+  </si>
+  <si>
+    <t>FAA16091</t>
+  </si>
+  <si>
+    <t>25.550 K</t>
+  </si>
+  <si>
+    <t>FAA15662</t>
+  </si>
+  <si>
+    <t>MONNOSTAF</t>
+  </si>
+  <si>
+    <t>1 550.0000</t>
+  </si>
+  <si>
+    <t>FAA15565</t>
+  </si>
+  <si>
+    <t>STYLECRAFT</t>
+  </si>
+  <si>
+    <t>70.310 K</t>
+  </si>
+  <si>
+    <t>FAA15351</t>
+  </si>
+  <si>
+    <t>70.000 K</t>
+  </si>
+  <si>
+    <t>FAA14209</t>
+  </si>
+  <si>
+    <t>FAA14117</t>
+  </si>
+  <si>
+    <t>44.400 K</t>
+  </si>
+  <si>
+    <t>FAA13436</t>
+  </si>
+  <si>
+    <t>33 338</t>
+  </si>
+  <si>
+    <t>FAA12837</t>
+  </si>
+  <si>
+    <t>FAA12667</t>
   </si>
   <si>
     <t>AMBEEPHA</t>
   </si>
   <si>
-    <t>FAA17632</t>
-  </si>
-  <si>
-    <t>SPCL</t>
-  </si>
-  <si>
-    <t>FAA15424</t>
-  </si>
-  <si>
-    <t>FAA15339</t>
-  </si>
-  <si>
-    <t>FAA13916</t>
-  </si>
-  <si>
-    <t>FAA13658</t>
-  </si>
-  <si>
-    <t>NPOLYMAR</t>
-  </si>
-  <si>
-    <t>7.310 K</t>
-  </si>
-  <si>
-    <t>FAA13456</t>
-  </si>
-  <si>
-    <t>FAA13276</t>
-  </si>
-  <si>
-    <t>BANGAS</t>
-  </si>
-  <si>
-    <t>61.574 K</t>
-  </si>
-  <si>
-    <t>FAA12373</t>
-  </si>
-  <si>
-    <t>28.000 K</t>
-  </si>
-  <si>
-    <t>FAA9389</t>
-  </si>
-  <si>
-    <t>GRAMEENS2</t>
-  </si>
-  <si>
-    <t>1 500</t>
-  </si>
-  <si>
-    <t>FAA8265</t>
-  </si>
-  <si>
-    <t>APEXSPINN</t>
-  </si>
-  <si>
-    <t>FAA8184</t>
-  </si>
-  <si>
-    <t>41.958 K</t>
-  </si>
-  <si>
-    <t>FAA8152</t>
+    <t>FAA12515</t>
+  </si>
+  <si>
+    <t>FAA12246</t>
+  </si>
+  <si>
+    <t>FAA12094</t>
+  </si>
+  <si>
+    <t>SIMTEX</t>
+  </si>
+  <si>
+    <t>6.840 K</t>
+  </si>
+  <si>
+    <t>FAA11768</t>
+  </si>
+  <si>
+    <t>17.000 K</t>
+  </si>
+  <si>
+    <t>FAA11712</t>
+  </si>
+  <si>
+    <t>25.650 K</t>
+  </si>
+  <si>
+    <t>FAA10741</t>
+  </si>
+  <si>
+    <t>25.500 K</t>
+  </si>
+  <si>
+    <t>FAA10603</t>
   </si>
   <si>
     <t>AAMRATECH</t>
   </si>
   <si>
-    <t>FAA7010</t>
-  </si>
-  <si>
-    <t>4.388 K</t>
-  </si>
-  <si>
-    <t>FAA6879</t>
-  </si>
-  <si>
-    <t>FAA6441</t>
-  </si>
-  <si>
-    <t>FAA5598</t>
-  </si>
-  <si>
-    <t>6.400 K</t>
-  </si>
-  <si>
-    <t>FAA5473</t>
-  </si>
-  <si>
-    <t>MONNOCERA</t>
-  </si>
-  <si>
-    <t>FAA4865</t>
-  </si>
-  <si>
-    <t>NAVANACNG</t>
-  </si>
-  <si>
-    <t>51.700 K</t>
-  </si>
-  <si>
-    <t>FAA4819</t>
-  </si>
-  <si>
-    <t>FAA4781</t>
+    <t>FAA6845</t>
+  </si>
+  <si>
+    <t>FAA5485</t>
+  </si>
+  <si>
+    <t>14.640 K</t>
+  </si>
+  <si>
+    <t>FAA5113</t>
   </si>
 </sst>
 </file>
@@ -1165,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:M143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M119"/>
+      <selection sqref="A1:M143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,7 +1417,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>70409</v>
+        <v>70364</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -1228,1451 +1429,1451 @@
         <v>15</v>
       </c>
       <c r="E2">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+        <v>7.1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
+        <v>792</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
       </c>
       <c r="K2" s="1">
-        <v>0.39590277777777777</v>
+        <v>0.39276620370370369</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>70409</v>
+        <v>71473</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
+      <c r="D3">
+        <v>400</v>
       </c>
       <c r="E3">
-        <v>16.3</v>
+        <v>257.39999999999998</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>0</v>
+      <c r="J3" t="s">
+        <v>24</v>
       </c>
       <c r="K3" s="1">
-        <v>0.39587962962962964</v>
+        <v>0.3921412037037037</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M3" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>70414</v>
+        <v>121190</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E4">
-        <v>325.89999999999998</v>
+        <v>46.3</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1">
-        <v>0.39534722222222224</v>
+        <v>0.39185185185185184</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M4" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>95141</v>
+        <v>121190</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5">
-        <v>200</v>
+      <c r="D5" t="s">
+        <v>28</v>
       </c>
       <c r="E5">
-        <v>42.9</v>
+        <v>46.6</v>
       </c>
       <c r="F5">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
-        <v>28</v>
+      <c r="J5">
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0.39471064814814816</v>
+        <v>0.39093749999999999</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M5" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>95141</v>
+        <v>71491</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6">
-        <v>200</v>
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
       </c>
       <c r="E6">
-        <v>43</v>
+        <v>12.1</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0.39421296296296293</v>
+        <v>0.3895717592592593</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M6" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>70364</v>
+        <v>70723</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E7">
-        <v>21.6</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>73.099999999999994</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
       </c>
       <c r="K7" s="1">
-        <v>0.39402777777777781</v>
+        <v>0.3843287037037037</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M7" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>70409</v>
+        <v>71309</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>500</v>
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
       </c>
       <c r="E8">
-        <v>50.1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>12.1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I8">
-        <v>500</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
       </c>
       <c r="K8" s="1">
-        <v>0.39370370370370367</v>
+        <v>0.38370370370370371</v>
       </c>
       <c r="L8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M8" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>70409</v>
+        <v>71495</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E9">
-        <v>16.2</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>39.1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>47</v>
       </c>
       <c r="K9" s="1">
-        <v>0.39255787037037032</v>
+        <v>0.38024305555555554</v>
       </c>
       <c r="L9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M9" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3616</v>
+        <v>71495</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0.39179398148148148</v>
+        <v>0.38003472222222223</v>
       </c>
       <c r="L10" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M10" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>70364</v>
+        <v>70510</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>500</v>
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
       </c>
       <c r="E11">
-        <v>30.2</v>
+        <v>7.2</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
+        <v>36</v>
+      </c>
+      <c r="I11" t="s">
+        <v>51</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>0.39142361111111112</v>
+        <v>0.3769675925925926</v>
       </c>
       <c r="L11" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="M11" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>71476</v>
+        <v>71491</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="E12">
-        <v>143</v>
+        <v>26.6</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12">
-        <v>715</v>
+      <c r="J12" t="s">
+        <v>54</v>
       </c>
       <c r="K12" s="1">
-        <v>0.39122685185185185</v>
+        <v>0.37653935185185183</v>
       </c>
       <c r="L12" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="M12" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>70409</v>
+        <v>70063</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>403</v>
       </c>
       <c r="E13">
-        <v>183.1</v>
+        <v>107.3</v>
       </c>
       <c r="F13">
-        <v>100</v>
+        <v>403</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K13" s="1">
-        <v>0.39086805555555554</v>
+        <v>0.37489583333333337</v>
       </c>
       <c r="L13" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="M13" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>95141</v>
+        <v>71174</v>
       </c>
       <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14">
-        <v>200</v>
+      <c r="D14" t="s">
+        <v>60</v>
       </c>
       <c r="E14">
-        <v>43.4</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
+        <v>26.1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14">
-        <v>0</v>
+      <c r="J14" t="s">
+        <v>61</v>
       </c>
       <c r="K14" s="1">
-        <v>0.39069444444444446</v>
+        <v>0.37427083333333333</v>
       </c>
       <c r="L14" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="M14" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>70409</v>
+        <v>70723</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>200</v>
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
       </c>
       <c r="E15">
-        <v>181.2</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+        <v>54.6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I15">
-        <v>200</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>65</v>
       </c>
       <c r="K15" s="1">
-        <v>0.39023148148148151</v>
+        <v>0.37349537037037034</v>
       </c>
       <c r="L15" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="M15" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>70364</v>
+        <v>95141</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="E16">
-        <v>22.6</v>
+        <v>11.8</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I16">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>944</v>
       </c>
       <c r="K16" s="1">
-        <v>0.3895717592592593</v>
+        <v>0.37166666666666665</v>
       </c>
       <c r="L16" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="M16" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>95141</v>
+        <v>70510</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17">
-        <v>150</v>
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
       </c>
       <c r="E17">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="F17">
-        <v>150</v>
+        <v>7.1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="K17" s="1">
-        <v>0.38914351851851853</v>
+        <v>0.37134259259259261</v>
       </c>
       <c r="L17" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="M17" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>70364</v>
+        <v>71495</v>
       </c>
       <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18">
+        <v>39.6</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>500</v>
-      </c>
-      <c r="E18">
-        <v>21.6</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" t="s">
-        <v>34</v>
-      </c>
       <c r="I18">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0.3871296296296296</v>
+        <v>0.37063657407407408</v>
       </c>
       <c r="L18" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="M18" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>91590</v>
+        <v>71307</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
       </c>
       <c r="E19">
-        <v>32</v>
+        <v>15.1</v>
       </c>
       <c r="F19">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
       </c>
       <c r="J19">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0.38560185185185186</v>
+        <v>0.3687037037037037</v>
       </c>
       <c r="L19" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="M19" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>70872</v>
+        <v>71479</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E20">
-        <v>29.9</v>
+        <v>15.2</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I20" t="s">
-        <v>64</v>
+        <v>23</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="K20" s="1">
-        <v>0.38547453703703699</v>
+        <v>0.3676388888888889</v>
       </c>
       <c r="L20" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="M20" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>71314</v>
+        <v>95141</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>112</v>
+        <v>400</v>
       </c>
       <c r="E21">
-        <v>14.2</v>
+        <v>22.1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I21">
-        <v>112</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>79</v>
       </c>
       <c r="K21" s="1">
-        <v>0.38493055555555555</v>
+        <v>0.36472222222222223</v>
       </c>
       <c r="L21" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="M21" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>70565</v>
+        <v>71272</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E22">
-        <v>9.1</v>
+        <v>25.8</v>
       </c>
       <c r="F22">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="K22" s="1">
-        <v>0.38384259259259257</v>
+        <v>0.36440972222222223</v>
       </c>
       <c r="L22" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="M22" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>70364</v>
+        <v>71487</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E23">
-        <v>71.8</v>
+        <v>153.80000000000001</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I23">
-        <v>200</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>85</v>
       </c>
       <c r="K23" s="1">
-        <v>0.3837268518518519</v>
+        <v>0.35774305555555558</v>
       </c>
       <c r="L23" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="M23" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>70364</v>
+        <v>71487</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D24">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E24">
-        <v>72.099999999999994</v>
+        <v>153.5</v>
       </c>
       <c r="F24">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="K24" s="1">
-        <v>0.38361111111111112</v>
+        <v>0.35767361111111112</v>
       </c>
       <c r="L24" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="M24" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>71314</v>
+        <v>71272</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E25">
-        <v>26.4</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="F25">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K25" s="1">
-        <v>0.38280092592592596</v>
+        <v>0.35656249999999995</v>
       </c>
       <c r="L25" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="M25" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>71476</v>
+        <v>71272</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
-      <c r="D26">
-        <v>50</v>
+      <c r="D26" t="s">
+        <v>75</v>
       </c>
       <c r="E26">
-        <v>48.9</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
+        <v>8.4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>75</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I26">
-        <v>50</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>93</v>
       </c>
       <c r="K26" s="1">
-        <v>0.38223379629629628</v>
+        <v>0.35619212962962959</v>
       </c>
       <c r="L26" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="M26" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>70364</v>
+        <v>71314</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27">
-        <v>500</v>
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
       </c>
       <c r="E27">
-        <v>21.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27">
-        <v>500</v>
+        <v>36</v>
+      </c>
+      <c r="I27" t="s">
+        <v>51</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>0.38190972222222225</v>
+        <v>0.3560532407407408</v>
       </c>
       <c r="L27" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="M27" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>95141</v>
+        <v>3616</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D28">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="E28">
-        <v>35.4</v>
+        <v>75</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28" s="1">
-        <v>0.3808449074074074</v>
+        <v>0.35592592592592592</v>
       </c>
       <c r="L28" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="M28" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>71476</v>
+        <v>71272</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="E29">
-        <v>253.9</v>
+        <v>25.8</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H29" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I29">
-        <v>5</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>82</v>
       </c>
       <c r="K29" s="1">
-        <v>0.37935185185185188</v>
+        <v>0.35570601851851852</v>
       </c>
       <c r="L29" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="M29" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>71476</v>
+        <v>3616</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30">
-        <v>5</v>
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>101</v>
       </c>
       <c r="E30">
-        <v>253.7</v>
+        <v>5.2</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H30" t="s">
-        <v>34</v>
-      </c>
-      <c r="I30">
-        <v>5</v>
+        <v>36</v>
+      </c>
+      <c r="I30" t="s">
+        <v>101</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>0.37916666666666665</v>
+        <v>0.35560185185185184</v>
       </c>
       <c r="L30" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="M30" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>71476</v>
+        <v>71272</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="E31">
-        <v>254</v>
+        <v>16.7</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H31" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I31">
-        <v>5</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>104</v>
       </c>
       <c r="K31" s="1">
-        <v>0.3790162037037037</v>
+        <v>0.35546296296296293</v>
       </c>
       <c r="L31" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="M31" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>71476</v>
+        <v>70909</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
       </c>
-      <c r="D32">
-        <v>10</v>
+      <c r="D32" t="s">
+        <v>51</v>
       </c>
       <c r="E32">
-        <v>253.3</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
+        <v>16.7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>51</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H32" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I32">
-        <v>10</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>107</v>
       </c>
       <c r="K32" s="1">
-        <v>0.37880787037037034</v>
+        <v>0.35524305555555552</v>
       </c>
       <c r="L32" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="M32" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>70308</v>
+        <v>70909</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
       </c>
-      <c r="D33">
-        <v>100</v>
+      <c r="D33" t="s">
+        <v>51</v>
       </c>
       <c r="E33">
-        <v>46.1</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H33" t="s">
-        <v>34</v>
-      </c>
-      <c r="I33">
-        <v>100</v>
+        <v>36</v>
+      </c>
+      <c r="I33" t="s">
+        <v>51</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>0.37841435185185185</v>
+        <v>0.35519675925925925</v>
       </c>
       <c r="L33" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="M33" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>95141</v>
+        <v>70238</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D34">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="E34">
-        <v>35.9</v>
+        <v>250</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34">
-        <v>0</v>
+      <c r="J34" t="s">
+        <v>111</v>
       </c>
       <c r="K34" s="1">
-        <v>0.37795138888888885</v>
+        <v>0.34688657407407408</v>
       </c>
       <c r="L34" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="M34" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>95141</v>
+        <v>70364</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35">
-        <v>150</v>
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
       </c>
       <c r="E35">
-        <v>36.9</v>
+        <v>7</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="I35" t="s">
+        <v>15</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>0.37710648148148151</v>
+        <v>0.34214120370370371</v>
       </c>
       <c r="L35" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="M35" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>95141</v>
+        <v>71233</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D36">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E36">
-        <v>36.9</v>
+        <v>47.7</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H36" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36" s="1">
-        <v>0.37328703703703708</v>
+        <v>0.33754629629629629</v>
       </c>
       <c r="L36" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="M36" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>95141</v>
+        <v>71272</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37">
-        <v>150</v>
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>117</v>
       </c>
       <c r="E37">
-        <v>35.9</v>
+        <v>13</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H37" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -2681,267 +2882,267 @@
         <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>0.37178240740740742</v>
+        <v>0.33576388888888892</v>
       </c>
       <c r="L37" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="M37" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>70364</v>
+        <v>71272</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
       </c>
-      <c r="D38">
-        <v>500</v>
+      <c r="D38" t="s">
+        <v>51</v>
       </c>
       <c r="E38">
-        <v>22.4</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F38" t="s">
+        <v>51</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I38">
-        <v>500</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>120</v>
       </c>
       <c r="K38" s="1">
-        <v>0.3715162037037037</v>
+        <v>0.33557870370370368</v>
       </c>
       <c r="L38" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="M38" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>70527</v>
+        <v>95141</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" t="s">
-        <v>95</v>
+        <v>27</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
       </c>
       <c r="E39">
-        <v>27.3</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H39" t="s">
-        <v>34</v>
-      </c>
-      <c r="I39" t="s">
-        <v>95</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>123</v>
       </c>
       <c r="K39" s="1">
-        <v>0.37130787037037033</v>
+        <v>0.33535879629629628</v>
       </c>
       <c r="L39" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="M39" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>70790</v>
+        <v>71230</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="E40">
-        <v>16.3</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
+        <v>22.2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>125</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H40" t="s">
-        <v>34</v>
-      </c>
-      <c r="I40" t="s">
-        <v>97</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>126</v>
       </c>
       <c r="K40" s="1">
-        <v>0.36762731481481481</v>
+        <v>0.33515046296296297</v>
       </c>
       <c r="L40" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="M40" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>70724</v>
+        <v>71487</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" t="s">
-        <v>99</v>
+        <v>27</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
       </c>
       <c r="E41">
-        <v>16.3</v>
+        <v>153.80000000000001</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H41" t="s">
-        <v>34</v>
-      </c>
-      <c r="I41" t="s">
-        <v>99</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>85</v>
       </c>
       <c r="K41" s="1">
-        <v>0.36502314814814812</v>
+        <v>0.33399305555555553</v>
       </c>
       <c r="L41" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="M41" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>71216</v>
+        <v>95141</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D42">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E42">
-        <v>66.099999999999994</v>
+        <v>23.6</v>
       </c>
       <c r="F42">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H42" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
-      <c r="J42" t="s">
-        <v>102</v>
+      <c r="J42">
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>0.36122685185185183</v>
+        <v>0.33340277777777777</v>
       </c>
       <c r="L42" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="M42" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>70364</v>
+        <v>71491</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
       </c>
-      <c r="D43" t="s">
-        <v>19</v>
+      <c r="D43">
+        <v>110</v>
       </c>
       <c r="E43">
-        <v>21.8</v>
+        <v>12.1</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H43" t="s">
-        <v>34</v>
-      </c>
-      <c r="I43" t="s">
-        <v>19</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>130</v>
       </c>
       <c r="K43" s="1">
-        <v>0.35954861111111108</v>
+        <v>0.3331944444444444</v>
       </c>
       <c r="L43" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="M43" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>70364</v>
+        <v>71272</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -2950,1615 +3151,1615 @@
         <v>500</v>
       </c>
       <c r="E44">
-        <v>22.2</v>
+        <v>16.8</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H44" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I44">
-        <v>500</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>132</v>
       </c>
       <c r="K44" s="1">
-        <v>0.35946759259259259</v>
+        <v>0.33224537037037033</v>
       </c>
       <c r="L44" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="M44" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>70364</v>
+        <v>95141</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="D45">
+        <v>200</v>
       </c>
       <c r="E45">
-        <v>22.1</v>
+        <v>44.2</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H45" t="s">
-        <v>34</v>
-      </c>
-      <c r="I45" t="s">
-        <v>19</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>79</v>
       </c>
       <c r="K45" s="1">
-        <v>0.35866898148148146</v>
+        <v>0.33011574074074074</v>
       </c>
       <c r="L45" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="M45" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>71216</v>
+        <v>71272</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
       </c>
-      <c r="D46" t="s">
-        <v>19</v>
+      <c r="D46">
+        <v>500</v>
       </c>
       <c r="E46">
-        <v>24.2</v>
-      </c>
-      <c r="F46" t="s">
-        <v>19</v>
+        <v>26.3</v>
+      </c>
+      <c r="F46">
+        <v>500</v>
       </c>
       <c r="G46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H46" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="K46" s="1">
-        <v>0.35666666666666669</v>
+        <v>0.32831018518518518</v>
       </c>
       <c r="L46" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="M46" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>70364</v>
+        <v>71495</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="E47">
-        <v>29.7</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
+        <v>12.1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>138</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H47" t="s">
-        <v>34</v>
-      </c>
-      <c r="I47" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>139</v>
       </c>
       <c r="K47" s="1">
-        <v>0.356412037037037</v>
+        <v>0.32078703703703704</v>
       </c>
       <c r="L47" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="M47" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>70364</v>
+        <v>71495</v>
       </c>
       <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48">
+        <v>12.1</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" t="s">
         <v>32</v>
       </c>
-      <c r="C48" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48">
-        <v>20.8</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48" t="s">
-        <v>33</v>
-      </c>
-      <c r="H48" t="s">
-        <v>34</v>
-      </c>
-      <c r="I48" t="s">
-        <v>15</v>
+      <c r="I48">
+        <v>0</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48" s="1">
-        <v>0.35626157407407405</v>
+        <v>0.31995370370370368</v>
       </c>
       <c r="L48" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="M48" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>70364</v>
+        <v>33252</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="D49">
+        <v>300</v>
       </c>
       <c r="E49">
-        <v>30.1</v>
+        <v>51.8</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H49" t="s">
-        <v>34</v>
-      </c>
-      <c r="I49" t="s">
-        <v>19</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>143</v>
       </c>
       <c r="K49" s="1">
-        <v>0.35584490740740743</v>
+        <v>0.31646990740740738</v>
       </c>
       <c r="L49" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="M49" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>70932</v>
+        <v>71295</v>
       </c>
       <c r="B50" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D50">
-        <v>10</v>
-      </c>
-      <c r="E50" t="s">
-        <v>114</v>
+        <v>95</v>
+      </c>
+      <c r="E50">
+        <v>16.8</v>
       </c>
       <c r="F50">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="K50" s="1">
-        <v>0.35119212962962965</v>
+        <v>0.31593749999999998</v>
       </c>
       <c r="L50" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="M50" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>70235</v>
+        <v>71233</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D51">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E51">
-        <v>42</v>
+        <v>18.5</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I51">
-        <v>100</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>149</v>
       </c>
       <c r="K51" s="1">
-        <v>0.35070601851851851</v>
+        <v>0.31532407407407409</v>
       </c>
       <c r="L51" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="M51" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>71216</v>
+        <v>71233</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
       </c>
-      <c r="D52" t="s">
-        <v>15</v>
+      <c r="D52">
+        <v>150</v>
       </c>
       <c r="E52">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="F52" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="F52">
+        <v>150</v>
       </c>
       <c r="G52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="K52" s="1">
-        <v>0.3464930555555556</v>
+        <v>0.31157407407407406</v>
       </c>
       <c r="L52" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="M52" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>70872</v>
+        <v>71233</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
       </c>
-      <c r="D53" t="s">
-        <v>123</v>
+      <c r="D53">
+        <v>200</v>
       </c>
       <c r="E53">
-        <v>47.4</v>
+        <v>25.9</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G53" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H53" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
-      <c r="J53">
-        <v>0</v>
+      <c r="J53" t="s">
+        <v>155</v>
       </c>
       <c r="K53" s="1">
-        <v>0.33260416666666665</v>
+        <v>0.31109953703703702</v>
       </c>
       <c r="L53" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="M53" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>70683</v>
+        <v>95141</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
       </c>
       <c r="D54">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E54">
-        <v>6.8</v>
+        <v>13.7</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H54" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I54">
-        <v>50</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>158</v>
       </c>
       <c r="K54" s="1">
-        <v>0.32454861111111111</v>
+        <v>0.31096064814814817</v>
       </c>
       <c r="L54" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="M54" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>71157</v>
+        <v>71491</v>
       </c>
       <c r="B55" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
       </c>
-      <c r="D55" t="s">
-        <v>128</v>
+      <c r="D55">
+        <v>7</v>
       </c>
       <c r="E55">
-        <v>22.1</v>
-      </c>
-      <c r="F55" t="s">
-        <v>128</v>
+        <v>76.099999999999994</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
       </c>
       <c r="G55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
-      <c r="J55" t="s">
-        <v>129</v>
+      <c r="J55">
+        <v>532.70000000000005</v>
       </c>
       <c r="K55" s="1">
-        <v>0.32177083333333334</v>
+        <v>0.30711805555555555</v>
       </c>
       <c r="L55" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="M55" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>71314</v>
+        <v>70364</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
       </c>
       <c r="E56">
-        <v>66.2</v>
-      </c>
-      <c r="F56">
-        <v>24</v>
+        <v>7.1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="K56" s="1">
-        <v>0.32119212962962962</v>
+        <v>0.30693287037037037</v>
       </c>
       <c r="L56" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="M56" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>71487</v>
+        <v>71233</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D57">
-        <v>500</v>
+        <v>252</v>
       </c>
       <c r="E57">
-        <v>28</v>
+        <v>47.2</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I57">
-        <v>500</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>164</v>
       </c>
       <c r="K57" s="1">
-        <v>0.31995370370370368</v>
+        <v>0.30679398148148146</v>
       </c>
       <c r="L57" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="M57" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>70932</v>
+        <v>71230</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="E58">
-        <v>15.7</v>
+        <v>31.6</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="G58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="K58" s="1">
-        <v>0.31761574074074073</v>
+        <v>0.30186342592592591</v>
       </c>
       <c r="L58" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="M58" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>71272</v>
+        <v>70089</v>
       </c>
       <c r="B59" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
       </c>
-      <c r="D59" t="s">
-        <v>139</v>
+      <c r="D59">
+        <v>100</v>
       </c>
       <c r="E59">
-        <v>11.6</v>
-      </c>
-      <c r="F59" t="s">
-        <v>139</v>
+        <v>15</v>
+      </c>
+      <c r="F59">
+        <v>100</v>
       </c>
       <c r="G59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="K59" s="1">
-        <v>0.31657407407407406</v>
+        <v>0.29980324074074077</v>
       </c>
       <c r="L59" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="M59" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>70932</v>
+        <v>70311</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
       </c>
-      <c r="D60">
-        <v>400</v>
+      <c r="D60" t="s">
+        <v>51</v>
       </c>
       <c r="E60">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="F60">
-        <v>400</v>
+        <v>108.8</v>
+      </c>
+      <c r="F60" t="s">
+        <v>51</v>
       </c>
       <c r="G60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="K60" s="1">
-        <v>0.31004629629629626</v>
+        <v>0.29964120370370367</v>
       </c>
       <c r="L60" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="M60" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>70932</v>
+        <v>70089</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
       </c>
       <c r="D61">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E61">
-        <v>53.7</v>
+        <v>18</v>
       </c>
       <c r="F61">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H61" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61" t="s">
-        <v>146</v>
+        <v>300</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
       </c>
       <c r="K61" s="1">
-        <v>0.30971064814814814</v>
+        <v>0.29761574074074076</v>
       </c>
       <c r="L61" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="M61" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>70779</v>
+        <v>70311</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
       </c>
-      <c r="D62" t="s">
-        <v>19</v>
+      <c r="D62">
+        <v>900</v>
       </c>
       <c r="E62">
-        <v>10.3</v>
-      </c>
-      <c r="F62" t="s">
-        <v>19</v>
+        <v>109.5</v>
+      </c>
+      <c r="F62">
+        <v>900</v>
       </c>
       <c r="G62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="K62" s="1">
-        <v>0.30935185185185182</v>
+        <v>0.29675925925925922</v>
       </c>
       <c r="L62" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="M62" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>70780</v>
+        <v>71491</v>
       </c>
       <c r="B63" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
       </c>
       <c r="D63">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E63">
-        <v>366</v>
+        <v>11.7</v>
       </c>
       <c r="F63">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H63" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
-      <c r="J63" t="s">
-        <v>152</v>
+      <c r="J63">
+        <v>0</v>
       </c>
       <c r="K63" s="1">
-        <v>0.30915509259259261</v>
+        <v>0.29608796296296297</v>
       </c>
       <c r="L63" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="M63" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>108666</v>
+        <v>71295</v>
       </c>
       <c r="B64" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64">
-        <v>45</v>
+        <v>27</v>
+      </c>
+      <c r="D64" t="s">
+        <v>64</v>
       </c>
       <c r="E64">
-        <v>413.3</v>
-      </c>
-      <c r="F64">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="F64" t="s">
+        <v>64</v>
       </c>
       <c r="G64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="K64" s="1">
-        <v>0.30319444444444443</v>
+        <v>0.28997685185185185</v>
       </c>
       <c r="L64" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="M64" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>70414</v>
+        <v>71295</v>
       </c>
       <c r="B65" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="D65" t="s">
+        <v>182</v>
       </c>
       <c r="E65">
-        <v>6</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
+        <v>7.5</v>
+      </c>
+      <c r="F65" t="s">
+        <v>182</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H65" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I65">
-        <v>26</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>183</v>
       </c>
       <c r="K65" s="1">
-        <v>0.29931712962962964</v>
+        <v>0.28967592592592589</v>
       </c>
       <c r="L65" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="M65" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>71157</v>
+        <v>70364</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D66">
-        <v>743</v>
+        <v>99</v>
       </c>
       <c r="E66">
-        <v>32.299999999999997</v>
+        <v>73.8</v>
       </c>
       <c r="F66">
-        <v>743</v>
+        <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H66" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
-      <c r="J66" t="s">
-        <v>160</v>
+      <c r="J66">
+        <v>0</v>
       </c>
       <c r="K66" s="1">
-        <v>0.29912037037037037</v>
+        <v>0.28773148148148148</v>
       </c>
       <c r="L66" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="M66" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>71174</v>
+        <v>70909</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
-      <c r="D67">
-        <v>24</v>
+      <c r="D67" t="s">
+        <v>51</v>
       </c>
       <c r="E67">
-        <v>62.3</v>
-      </c>
-      <c r="F67">
-        <v>24</v>
+        <v>16.7</v>
+      </c>
+      <c r="F67" t="s">
+        <v>51</v>
       </c>
       <c r="G67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="K67" s="1">
-        <v>0.2981712962962963</v>
+        <v>0.28436342592592595</v>
       </c>
       <c r="L67" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="M67" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>71174</v>
+        <v>70790</v>
       </c>
       <c r="B68" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
       </c>
-      <c r="D68" t="s">
-        <v>15</v>
+      <c r="D68">
+        <v>50</v>
       </c>
       <c r="E68">
-        <v>62.4</v>
-      </c>
-      <c r="F68" t="s">
-        <v>15</v>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="F68">
+        <v>50</v>
       </c>
       <c r="G68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
-      <c r="J68" t="s">
-        <v>165</v>
+      <c r="J68">
+        <v>820</v>
       </c>
       <c r="K68" s="1">
-        <v>0.29804398148148148</v>
+        <v>0.28422453703703704</v>
       </c>
       <c r="L68" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="M68" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>71174</v>
+        <v>70364</v>
       </c>
       <c r="B69" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
       </c>
-      <c r="D69" t="s">
-        <v>167</v>
+      <c r="D69">
+        <v>299</v>
       </c>
       <c r="E69">
-        <v>62.5</v>
-      </c>
-      <c r="F69" t="s">
-        <v>167</v>
+        <v>74.099999999999994</v>
+      </c>
+      <c r="F69">
+        <v>299</v>
       </c>
       <c r="G69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="K69" s="1">
-        <v>0.29788194444444444</v>
+        <v>0.27635416666666668</v>
       </c>
       <c r="L69" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="M69" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>71157</v>
+        <v>70364</v>
       </c>
       <c r="B70" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>22</v>
-      </c>
-      <c r="D70">
-        <v>429</v>
+        <v>14</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
       </c>
       <c r="E70">
-        <v>46.8</v>
+        <v>7</v>
       </c>
       <c r="F70">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H70" t="s">
-        <v>24</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70" t="s">
-        <v>171</v>
+        <v>36</v>
+      </c>
+      <c r="I70" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
       </c>
       <c r="K70" s="1">
-        <v>0.29431712962962964</v>
+        <v>0.27600694444444446</v>
       </c>
       <c r="L70" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="M70" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70872</v>
+        <v>70364</v>
       </c>
       <c r="B71" t="s">
-        <v>173</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>174</v>
+        <v>15</v>
       </c>
       <c r="E71">
-        <v>31</v>
+        <v>7.1</v>
       </c>
       <c r="F71" t="s">
-        <v>174</v>
+        <v>15</v>
       </c>
       <c r="G71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="K71" s="1">
-        <v>0.29116898148148146</v>
+        <v>0.27584490740740741</v>
       </c>
       <c r="L71" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="M71" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>70779</v>
+        <v>70872</v>
       </c>
       <c r="B72" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
       </c>
-      <c r="D72">
-        <v>500</v>
+      <c r="D72" t="s">
+        <v>195</v>
       </c>
       <c r="E72">
-        <v>10.199999999999999</v>
+        <v>30.1</v>
       </c>
       <c r="F72">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72" t="s">
-        <v>177</v>
+        <v>36</v>
+      </c>
+      <c r="I72" t="s">
+        <v>195</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
       </c>
       <c r="K72" s="1">
-        <v>0.28942129629629632</v>
+        <v>0.27341435185185187</v>
       </c>
       <c r="L72" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="M72" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>95141</v>
+        <v>70723</v>
       </c>
       <c r="B73" t="s">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
       </c>
       <c r="E73">
-        <v>21.5</v>
-      </c>
-      <c r="F73">
-        <v>20</v>
+        <v>13.5</v>
+      </c>
+      <c r="F73" t="s">
+        <v>15</v>
       </c>
       <c r="G73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
-      <c r="J73">
-        <v>430</v>
+      <c r="J73" t="s">
+        <v>198</v>
       </c>
       <c r="K73" s="1">
-        <v>0.28606481481481483</v>
+        <v>0.2732175925925926</v>
       </c>
       <c r="L73" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="M73" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>95141</v>
+        <v>71491</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
-      </c>
-      <c r="D74">
-        <v>260</v>
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>51</v>
       </c>
       <c r="E74">
-        <v>47</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
+        <v>11.9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>51</v>
       </c>
       <c r="G74" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H74" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
-      <c r="J74">
-        <v>0</v>
+      <c r="J74" t="s">
+        <v>200</v>
       </c>
       <c r="K74" s="1">
-        <v>0.28553240740740743</v>
+        <v>0.27297453703703706</v>
       </c>
       <c r="L74" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="M74" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>95141</v>
+        <v>71311</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75">
-        <v>200</v>
+        <v>27</v>
+      </c>
+      <c r="D75" t="s">
+        <v>203</v>
       </c>
       <c r="E75">
-        <v>21.5</v>
-      </c>
-      <c r="F75">
-        <v>200</v>
+        <v>232.9</v>
+      </c>
+      <c r="F75" t="s">
+        <v>203</v>
       </c>
       <c r="G75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="K75" s="1">
-        <v>0.28444444444444444</v>
+        <v>0.27251157407407406</v>
       </c>
       <c r="L75" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="M75" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>71272</v>
+        <v>71491</v>
       </c>
       <c r="B76" t="s">
-        <v>183</v>
+        <v>53</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D76">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="E76">
-        <v>32.5</v>
+        <v>27.7</v>
       </c>
       <c r="F76">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H76" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
-      <c r="J76" t="s">
-        <v>184</v>
+      <c r="J76">
+        <v>0</v>
       </c>
       <c r="K76" s="1">
-        <v>0.27974537037037034</v>
+        <v>0.27056712962962964</v>
       </c>
       <c r="L76" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="M76" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>71272</v>
+        <v>70591</v>
       </c>
       <c r="B77" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C77" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="D77">
+        <v>200</v>
       </c>
       <c r="E77">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="F77" t="s">
-        <v>19</v>
+        <v>5.6</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H77" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
-      <c r="J77" t="s">
-        <v>187</v>
+      <c r="J77">
+        <v>0</v>
       </c>
       <c r="K77" s="1">
-        <v>0.27929398148148149</v>
+        <v>0.26956018518518515</v>
       </c>
       <c r="L77" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="M77" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>70525</v>
+        <v>71487</v>
       </c>
       <c r="B78" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="C78" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D78" t="s">
-        <v>190</v>
+        <v>64</v>
       </c>
       <c r="E78">
-        <v>75</v>
-      </c>
-      <c r="F78" t="s">
-        <v>190</v>
+        <v>7.9</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H78" t="s">
-        <v>24</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78" t="s">
-        <v>191</v>
+        <v>36</v>
+      </c>
+      <c r="I78" t="s">
+        <v>64</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
       </c>
       <c r="K78" s="1">
-        <v>0.27858796296296295</v>
+        <v>0.2694212962962963</v>
       </c>
       <c r="L78" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M78" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>70621</v>
+        <v>71216</v>
       </c>
       <c r="B79" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79">
-        <v>200</v>
+        <v>27</v>
+      </c>
+      <c r="D79" t="s">
+        <v>15</v>
       </c>
       <c r="E79">
-        <v>68.5</v>
+        <v>5</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H79" t="s">
-        <v>34</v>
-      </c>
-      <c r="I79">
-        <v>200</v>
+        <v>36</v>
+      </c>
+      <c r="I79" t="s">
+        <v>15</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79" s="1">
-        <v>0.27468750000000003</v>
+        <v>0.26836805555555554</v>
       </c>
       <c r="L79" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="M79" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>70932</v>
+        <v>71216</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80">
-        <v>10</v>
-      </c>
-      <c r="E80" t="s">
-        <v>195</v>
-      </c>
-      <c r="F80">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80">
+        <v>6.5</v>
+      </c>
+      <c r="F80" t="s">
+        <v>15</v>
       </c>
       <c r="G80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="K80" s="1">
-        <v>0.27446759259259262</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="L80" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="M80" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>71272</v>
+        <v>70723</v>
       </c>
       <c r="B81" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="C81" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D81" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="E81">
-        <v>12</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
+        <v>13.6</v>
+      </c>
+      <c r="F81" t="s">
+        <v>214</v>
       </c>
       <c r="G81" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H81" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
-      <c r="J81">
-        <v>0</v>
+      <c r="J81" t="s">
+        <v>215</v>
       </c>
       <c r="K81" s="1">
-        <v>0.27348379629629632</v>
+        <v>0.26703703703703702</v>
       </c>
       <c r="L81" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="M81" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>71487</v>
+        <v>70591</v>
       </c>
       <c r="B82" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82">
         <v>200</v>
       </c>
       <c r="E82">
-        <v>4.3</v>
+        <v>10.5</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H82" t="s">
-        <v>34</v>
-      </c>
-      <c r="I82" t="s">
-        <v>200</v>
+        <v>118</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82" s="1">
-        <v>0.26996527777777779</v>
+        <v>0.26675925925925925</v>
       </c>
       <c r="L82" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="M82" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>108666</v>
+        <v>70591</v>
       </c>
       <c r="B83" t="s">
-        <v>154</v>
+        <v>219</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D83">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E83">
-        <v>411.6</v>
+        <v>13.2</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H83" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -4567,874 +4768,874 @@
         <v>0</v>
       </c>
       <c r="K83" s="1">
-        <v>0.26679398148148148</v>
+        <v>0.26603009259259258</v>
       </c>
       <c r="L83" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="M83" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>71472</v>
+        <v>71491</v>
       </c>
       <c r="B84" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="C84" t="s">
-        <v>22</v>
-      </c>
-      <c r="D84">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>51</v>
       </c>
       <c r="E84">
-        <v>419</v>
+        <v>11.8</v>
       </c>
       <c r="F84">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H84" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
-      <c r="J84" t="s">
-        <v>203</v>
+      <c r="J84">
+        <v>0</v>
       </c>
       <c r="K84" s="1">
-        <v>0.26620370370370372</v>
+        <v>0.26542824074074073</v>
       </c>
       <c r="L84" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M84" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>70018</v>
+        <v>71494</v>
       </c>
       <c r="B85" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
       </c>
-      <c r="D85">
-        <v>400</v>
+      <c r="D85" t="s">
+        <v>222</v>
       </c>
       <c r="E85">
-        <v>22.3</v>
-      </c>
-      <c r="F85">
-        <v>400</v>
+        <v>12</v>
+      </c>
+      <c r="F85" t="s">
+        <v>222</v>
       </c>
       <c r="G85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="K85" s="1">
-        <v>0.26296296296296295</v>
+        <v>0.2650925925925926</v>
       </c>
       <c r="L85" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="M85" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>70841</v>
+        <v>70311</v>
       </c>
       <c r="B86" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
       </c>
-      <c r="D86">
-        <v>50</v>
+      <c r="D86" t="s">
+        <v>51</v>
       </c>
       <c r="E86">
-        <v>11</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
+        <v>109.5</v>
+      </c>
+      <c r="F86" t="s">
+        <v>51</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H86" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I86">
-        <v>50</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J86" t="s">
+        <v>225</v>
       </c>
       <c r="K86" s="1">
-        <v>0.2628125</v>
+        <v>0.26337962962962963</v>
       </c>
       <c r="L86" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="M86" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>70841</v>
+        <v>70311</v>
       </c>
       <c r="B87" t="s">
-        <v>209</v>
+        <v>56</v>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
-      </c>
-      <c r="D87">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>51</v>
       </c>
       <c r="E87">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="F87">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H87" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="K87" s="1">
-        <v>0.26266203703703705</v>
+        <v>0.26274305555555555</v>
       </c>
       <c r="L87" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="M87" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>70841</v>
+        <v>70723</v>
       </c>
       <c r="B88" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="C88" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D88">
-        <v>100</v>
+        <v>296</v>
       </c>
       <c r="E88">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H88" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I88">
-        <v>100</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J88" t="s">
+        <v>228</v>
       </c>
       <c r="K88" s="1">
-        <v>0.26253472222222224</v>
+        <v>0.26165509259259262</v>
       </c>
       <c r="L88" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="M88" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>108666</v>
+        <v>70311</v>
       </c>
       <c r="B89" t="s">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
       </c>
-      <c r="D89">
-        <v>20</v>
+      <c r="D89" t="s">
+        <v>64</v>
       </c>
       <c r="E89">
-        <v>409.7</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
+        <v>110.3</v>
+      </c>
+      <c r="F89" t="s">
+        <v>64</v>
       </c>
       <c r="G89" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H89" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
-      <c r="J89">
-        <v>0</v>
+      <c r="J89" t="s">
+        <v>230</v>
       </c>
       <c r="K89" s="1">
-        <v>0.25929398148148147</v>
+        <v>0.2600810185185185</v>
       </c>
       <c r="L89" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="M89" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>108666</v>
+        <v>70683</v>
       </c>
       <c r="B90" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
       </c>
       <c r="D90">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E90">
-        <v>409.5</v>
+        <v>5.5</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G90" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H90" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="K90" s="1">
-        <v>0.25851851851851854</v>
+        <v>0.25940972222222219</v>
       </c>
       <c r="L90" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="M90" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>70591</v>
+        <v>71491</v>
       </c>
       <c r="B91" t="s">
-        <v>215</v>
+        <v>53</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D91">
-        <v>50</v>
+        <v>438</v>
       </c>
       <c r="E91">
-        <v>18</v>
+        <v>28.4</v>
       </c>
       <c r="F91">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H91" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="K91" s="1">
-        <v>0.25784722222222223</v>
+        <v>0.25847222222222221</v>
       </c>
       <c r="L91" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="M91" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>108666</v>
+        <v>70364</v>
       </c>
       <c r="B92" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
       </c>
-      <c r="D92">
-        <v>500</v>
+      <c r="D92" t="s">
+        <v>15</v>
       </c>
       <c r="E92">
-        <v>34.200000000000003</v>
+        <v>7</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H92" t="s">
-        <v>30</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="I92" t="s">
+        <v>15</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92" s="1">
-        <v>0.25700231481481478</v>
+        <v>0.25813657407407409</v>
       </c>
       <c r="L92" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="M92" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>71178</v>
+        <v>70235</v>
       </c>
       <c r="B93" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D93">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="E93">
-        <v>24.8</v>
+        <v>11</v>
       </c>
       <c r="F93">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H93" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93" t="s">
-        <v>219</v>
+        <v>400</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
       </c>
       <c r="K93" s="1">
-        <v>0.25290509259259258</v>
+        <v>0.25443287037037038</v>
       </c>
       <c r="L93" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="M93" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>121190</v>
+        <v>70525</v>
       </c>
       <c r="B94" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="E94">
-        <v>29.7</v>
+        <v>8</v>
       </c>
       <c r="F94" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="G94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="K94" s="1">
-        <v>0.25078703703703703</v>
+        <v>0.2542476851851852</v>
       </c>
       <c r="L94" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="M94" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>121190</v>
+        <v>70046</v>
       </c>
       <c r="B95" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>222</v>
+        <v>64</v>
       </c>
       <c r="E95">
-        <v>29.6</v>
+        <v>4.5</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>49</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="I95" t="s">
+        <v>64</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95" s="1">
-        <v>0.24853009259259259</v>
+        <v>0.25128472222222226</v>
       </c>
       <c r="L95" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="M95" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>71350</v>
+        <v>71466</v>
       </c>
       <c r="B96" t="s">
-        <v>54</v>
+        <v>243</v>
       </c>
       <c r="C96" t="s">
-        <v>22</v>
-      </c>
-      <c r="D96" t="s">
-        <v>226</v>
+        <v>27</v>
+      </c>
+      <c r="D96">
+        <v>20</v>
       </c>
       <c r="E96">
-        <v>34.1</v>
-      </c>
-      <c r="F96" t="s">
-        <v>226</v>
+        <v>193.8</v>
+      </c>
+      <c r="F96">
+        <v>20</v>
       </c>
       <c r="G96" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="K96" s="1">
-        <v>0.24546296296296297</v>
+        <v>0.25040509259259258</v>
       </c>
       <c r="L96" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="M96" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>70932</v>
+        <v>70790</v>
       </c>
       <c r="B97" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
       </c>
-      <c r="D97">
-        <v>70</v>
+      <c r="D97" t="s">
+        <v>246</v>
       </c>
       <c r="E97">
-        <v>55.3</v>
-      </c>
-      <c r="F97">
-        <v>70</v>
+        <v>16.5</v>
+      </c>
+      <c r="F97" t="s">
+        <v>246</v>
       </c>
       <c r="G97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="K97" s="1">
-        <v>0.24530092592592592</v>
+        <v>0.25018518518518518</v>
       </c>
       <c r="L97" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="M97" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>83983</v>
+        <v>70723</v>
       </c>
       <c r="B98" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D98">
-        <v>620</v>
+        <v>700</v>
       </c>
       <c r="E98">
-        <v>23.5</v>
+        <v>13.6</v>
       </c>
       <c r="F98">
-        <v>620</v>
+        <v>700</v>
       </c>
       <c r="G98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="K98" s="1">
-        <v>0.2439351851851852</v>
+        <v>0.24800925925925923</v>
       </c>
       <c r="L98" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="M98" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>70527</v>
+        <v>108666</v>
       </c>
       <c r="B99" t="s">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="C99" t="s">
-        <v>22</v>
-      </c>
-      <c r="D99" t="s">
-        <v>167</v>
+        <v>14</v>
+      </c>
+      <c r="D99">
+        <v>800</v>
       </c>
       <c r="E99">
-        <v>25.9</v>
-      </c>
-      <c r="F99" t="s">
-        <v>167</v>
+        <v>23.2</v>
+      </c>
+      <c r="F99">
+        <v>800</v>
       </c>
       <c r="G99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="K99" s="1">
-        <v>0.23883101851851851</v>
+        <v>0.24784722222222222</v>
       </c>
       <c r="L99" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="M99" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>71472</v>
+        <v>70364</v>
       </c>
       <c r="B100" t="s">
-        <v>237</v>
+        <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>22</v>
-      </c>
-      <c r="D100">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>15</v>
       </c>
       <c r="E100">
-        <v>795</v>
+        <v>6.5</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H100" t="s">
-        <v>34</v>
-      </c>
-      <c r="I100">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="I100" t="s">
+        <v>15</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100" s="1">
-        <v>0.23868055555555556</v>
+        <v>0.24761574074074075</v>
       </c>
       <c r="L100" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="M100" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>70527</v>
+        <v>70364</v>
       </c>
       <c r="B101" t="s">
-        <v>239</v>
+        <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
-      </c>
-      <c r="D101">
-        <v>800</v>
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
+        <v>15</v>
       </c>
       <c r="E101">
-        <v>101.8</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="F101" t="s">
+        <v>15</v>
       </c>
       <c r="G101" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H101" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I101">
-        <v>800</v>
-      </c>
-      <c r="J101">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J101" t="s">
+        <v>255</v>
       </c>
       <c r="K101" s="1">
-        <v>0.2358564814814815</v>
+        <v>0.24714120370370371</v>
       </c>
       <c r="L101" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="M101" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>70527</v>
+        <v>95141</v>
       </c>
       <c r="B102" t="s">
-        <v>239</v>
+        <v>78</v>
       </c>
       <c r="C102" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D102">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E102">
-        <v>101.7</v>
+        <v>22.6</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H102" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I102">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102" s="1">
-        <v>0.23574074074074072</v>
+        <v>0.24695601851851853</v>
       </c>
       <c r="L102" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="M102" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>70527</v>
+        <v>95141</v>
       </c>
       <c r="B103" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="C103" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D103">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="E103">
-        <v>102.4</v>
+        <v>82</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H103" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I103">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103" s="1">
-        <v>0.23408564814814814</v>
+        <v>0.24678240740740742</v>
       </c>
       <c r="L103" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="M103" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>70527</v>
+        <v>121190</v>
       </c>
       <c r="B104" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="C104" t="s">
-        <v>22</v>
-      </c>
-      <c r="D104">
-        <v>700</v>
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>51</v>
       </c>
       <c r="E104">
-        <v>102.1</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="F104" t="s">
+        <v>51</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H104" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I104">
-        <v>700</v>
-      </c>
-      <c r="J104">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J104" t="s">
+        <v>260</v>
       </c>
       <c r="K104" s="1">
-        <v>0.23380787037037035</v>
+        <v>0.24675925925925926</v>
       </c>
       <c r="L104" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="M104" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -5442,532 +5643,532 @@
         <v>95141</v>
       </c>
       <c r="B105" t="s">
-        <v>244</v>
+        <v>122</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D105">
         <v>100</v>
       </c>
       <c r="E105">
-        <v>73.099999999999994</v>
+        <v>78.8</v>
       </c>
       <c r="F105">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H105" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
-      <c r="J105" t="s">
-        <v>245</v>
+      <c r="J105">
+        <v>0</v>
       </c>
       <c r="K105" s="1">
-        <v>0.23359953703703704</v>
+        <v>0.24559027777777778</v>
       </c>
       <c r="L105" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="M105" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>71178</v>
+        <v>95141</v>
       </c>
       <c r="B106" t="s">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
       </c>
-      <c r="D106">
-        <v>10</v>
+      <c r="D106" t="s">
+        <v>51</v>
       </c>
       <c r="E106">
-        <v>66</v>
-      </c>
-      <c r="F106">
-        <v>10</v>
+        <v>23.1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>51</v>
       </c>
       <c r="G106" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
-      <c r="J106">
-        <v>660</v>
+      <c r="J106" t="s">
+        <v>263</v>
       </c>
       <c r="K106" s="1">
-        <v>0.23340277777777776</v>
+        <v>0.24519675925925924</v>
       </c>
       <c r="L106" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="M106" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>121190</v>
+        <v>70409</v>
       </c>
       <c r="B107" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="C107" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D107">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="E107">
-        <v>362.2</v>
+        <v>205.7</v>
       </c>
       <c r="F107">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="G107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="K107" s="1">
-        <v>0.2324074074074074</v>
+        <v>0.24452546296296296</v>
       </c>
       <c r="L107" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="M107" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>71507</v>
+        <v>70409</v>
       </c>
       <c r="B108" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="C108" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D108">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E108">
-        <v>56</v>
+        <v>204.9</v>
       </c>
       <c r="F108">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="K108" s="1">
-        <v>0.22945601851851852</v>
+        <v>0.24431712962962962</v>
       </c>
       <c r="L108" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="M108" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>71487</v>
+        <v>70409</v>
       </c>
       <c r="B109" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
-      </c>
-      <c r="D109" t="s">
-        <v>254</v>
+        <v>27</v>
+      </c>
+      <c r="D109">
+        <v>200</v>
       </c>
       <c r="E109">
-        <v>12.1</v>
+        <v>202.6</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H109" t="s">
-        <v>34</v>
-      </c>
-      <c r="I109" t="s">
-        <v>254</v>
-      </c>
-      <c r="J109">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109" t="s">
+        <v>270</v>
       </c>
       <c r="K109" s="1">
-        <v>0.22931712962962961</v>
+        <v>0.24402777777777776</v>
       </c>
       <c r="L109" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="M109" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>71487</v>
+        <v>71491</v>
       </c>
       <c r="B110" t="s">
-        <v>256</v>
+        <v>160</v>
       </c>
       <c r="C110" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D110">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="E110">
-        <v>144.6</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H110" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I110">
-        <v>150</v>
-      </c>
-      <c r="J110">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J110" t="s">
+        <v>272</v>
       </c>
       <c r="K110" s="1">
-        <v>0.22931712962962961</v>
+        <v>0.24378472222222222</v>
       </c>
       <c r="L110" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="M110" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>70238</v>
+        <v>71491</v>
       </c>
       <c r="B111" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C111" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D111">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="E111">
-        <v>174.1</v>
+        <v>7</v>
       </c>
       <c r="F111">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="G111" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="K111" s="1">
-        <v>0.22931712962962961</v>
+        <v>0.24349537037037039</v>
       </c>
       <c r="L111" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="M111" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>71487</v>
+        <v>71491</v>
       </c>
       <c r="B112" t="s">
-        <v>260</v>
+        <v>50</v>
       </c>
       <c r="C112" t="s">
-        <v>22</v>
-      </c>
-      <c r="D112">
-        <v>500</v>
+        <v>14</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
       </c>
       <c r="E112">
-        <v>31.2</v>
+        <v>6.9</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H112" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="I112">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J112">
         <v>0</v>
       </c>
       <c r="K112" s="1">
-        <v>0.22930555555555554</v>
+        <v>0.24340277777777777</v>
       </c>
       <c r="L112" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="M112" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>70238</v>
+        <v>70046</v>
       </c>
       <c r="B113" t="s">
-        <v>117</v>
+        <v>241</v>
       </c>
       <c r="C113" t="s">
         <v>14</v>
       </c>
-      <c r="D113">
-        <v>106</v>
+      <c r="D113" t="s">
+        <v>15</v>
       </c>
       <c r="E113">
-        <v>41.4</v>
-      </c>
-      <c r="F113">
-        <v>106</v>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F113" t="s">
+        <v>15</v>
       </c>
       <c r="G113" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="K113" s="1">
-        <v>0.22930555555555554</v>
+        <v>0.24226851851851852</v>
       </c>
       <c r="L113" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="M113" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>71487</v>
+        <v>70235</v>
       </c>
       <c r="B114" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="C114" t="s">
-        <v>22</v>
-      </c>
-      <c r="D114" t="s">
-        <v>254</v>
+        <v>27</v>
+      </c>
+      <c r="D114">
+        <v>300</v>
       </c>
       <c r="E114">
-        <v>31.5</v>
+        <v>10.7</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H114" t="s">
-        <v>34</v>
-      </c>
-      <c r="I114" t="s">
-        <v>254</v>
-      </c>
-      <c r="J114">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>279</v>
       </c>
       <c r="K114" s="1">
-        <v>0.22930555555555554</v>
+        <v>0.24199074074074076</v>
       </c>
       <c r="L114" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="M114" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>71487</v>
+        <v>70527</v>
       </c>
       <c r="B115" t="s">
-        <v>125</v>
+        <v>281</v>
       </c>
       <c r="C115" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D115" t="s">
-        <v>19</v>
+        <v>282</v>
       </c>
       <c r="E115">
-        <v>6.3</v>
+        <v>102</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H115" t="s">
-        <v>34</v>
-      </c>
-      <c r="I115" t="s">
-        <v>19</v>
+        <v>283</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
       </c>
       <c r="J115">
         <v>0</v>
       </c>
       <c r="K115" s="1">
-        <v>0.22930555555555554</v>
+        <v>0.24181712962962965</v>
       </c>
       <c r="L115" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="M115" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>70238</v>
+        <v>70409</v>
       </c>
       <c r="B116" t="s">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="C116" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D116">
-        <v>200</v>
+        <v>414</v>
       </c>
       <c r="E116">
-        <v>32</v>
+        <v>50.7</v>
       </c>
       <c r="F116">
-        <v>200</v>
+        <v>414</v>
       </c>
       <c r="G116" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="K116" s="1">
-        <v>0.22929398148148147</v>
+        <v>0.2414236111111111</v>
       </c>
       <c r="L116" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="M116" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>70238</v>
+        <v>71487</v>
       </c>
       <c r="B117" t="s">
-        <v>268</v>
+        <v>148</v>
       </c>
       <c r="C117" t="s">
         <v>14</v>
       </c>
       <c r="D117">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="E117">
-        <v>260</v>
+        <v>18.3</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H117" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I117">
-        <v>20</v>
-      </c>
-      <c r="J117">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J117" t="s">
+        <v>288</v>
       </c>
       <c r="K117" s="1">
-        <v>0.22929398148148147</v>
+        <v>0.24118055555555554</v>
       </c>
       <c r="L117" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="M117" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5975,81 +6176,1065 @@
         <v>71487</v>
       </c>
       <c r="B118" t="s">
-        <v>270</v>
+        <v>148</v>
       </c>
       <c r="C118" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E118">
-        <v>51.7</v>
-      </c>
-      <c r="F118" t="s">
-        <v>19</v>
+        <v>18.2</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
       </c>
       <c r="G118" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H118" t="s">
-        <v>24</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118" t="s">
-        <v>271</v>
+        <v>36</v>
+      </c>
+      <c r="I118" t="s">
+        <v>51</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
       </c>
       <c r="K118" s="1">
-        <v>0.22929398148148147</v>
+        <v>0.24114583333333331</v>
       </c>
       <c r="L118" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="M118" s="2">
-        <v>43468</v>
+        <v>43472</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
+        <v>71476</v>
+      </c>
+      <c r="B119" t="s">
+        <v>291</v>
+      </c>
+      <c r="C119" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119">
+        <v>300</v>
+      </c>
+      <c r="E119">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F119">
+        <v>300</v>
+      </c>
+      <c r="G119" t="s">
+        <v>22</v>
+      </c>
+      <c r="H119" t="s">
+        <v>23</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>292</v>
+      </c>
+      <c r="K119" s="1">
+        <v>0.2408564814814815</v>
+      </c>
+      <c r="L119" t="s">
+        <v>293</v>
+      </c>
+      <c r="M119" s="2">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>71476</v>
+      </c>
+      <c r="B120" t="s">
+        <v>291</v>
+      </c>
+      <c r="C120" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120">
+        <v>300</v>
+      </c>
+      <c r="E120">
+        <v>19.3</v>
+      </c>
+      <c r="F120">
+        <v>300</v>
+      </c>
+      <c r="G120" t="s">
+        <v>22</v>
+      </c>
+      <c r="H120" t="s">
+        <v>23</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120" t="s">
+        <v>294</v>
+      </c>
+      <c r="K120" s="1">
+        <v>0.24075231481481482</v>
+      </c>
+      <c r="L120" t="s">
+        <v>295</v>
+      </c>
+      <c r="M120" s="2">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>108666</v>
+      </c>
+      <c r="B121" t="s">
+        <v>296</v>
+      </c>
+      <c r="C121" t="s">
+        <v>27</v>
+      </c>
+      <c r="D121">
+        <v>45</v>
+      </c>
+      <c r="E121">
+        <v>417.8</v>
+      </c>
+      <c r="F121">
+        <v>45</v>
+      </c>
+      <c r="G121" t="s">
+        <v>22</v>
+      </c>
+      <c r="H121" t="s">
+        <v>23</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121" t="s">
+        <v>297</v>
+      </c>
+      <c r="K121" s="1">
+        <v>0.23976851851851852</v>
+      </c>
+      <c r="L121" t="s">
+        <v>298</v>
+      </c>
+      <c r="M121" s="2">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>95141</v>
+      </c>
+      <c r="B122" t="s">
+        <v>157</v>
+      </c>
+      <c r="C122" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122">
+        <v>100</v>
+      </c>
+      <c r="E122">
+        <v>13.6</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122" t="s">
+        <v>31</v>
+      </c>
+      <c r="H122" t="s">
+        <v>118</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122" s="1">
+        <v>0.23895833333333336</v>
+      </c>
+      <c r="L122" t="s">
+        <v>299</v>
+      </c>
+      <c r="M122" s="2">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>70364</v>
+      </c>
+      <c r="B123" t="s">
+        <v>78</v>
+      </c>
+      <c r="C123" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123">
+        <v>22</v>
+      </c>
+      <c r="F123" t="s">
+        <v>64</v>
+      </c>
+      <c r="G123" t="s">
+        <v>22</v>
+      </c>
+      <c r="H123" t="s">
+        <v>23</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123" t="s">
+        <v>300</v>
+      </c>
+      <c r="K123" s="1">
+        <v>0.23766203703703703</v>
+      </c>
+      <c r="L123" t="s">
+        <v>301</v>
+      </c>
+      <c r="M123" s="2">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>70364</v>
+      </c>
+      <c r="B124" t="s">
+        <v>78</v>
+      </c>
+      <c r="C124" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" t="s">
+        <v>51</v>
+      </c>
+      <c r="E124">
+        <v>22.3</v>
+      </c>
+      <c r="F124" t="s">
+        <v>51</v>
+      </c>
+      <c r="G124" t="s">
+        <v>22</v>
+      </c>
+      <c r="H124" t="s">
+        <v>23</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124" t="s">
+        <v>302</v>
+      </c>
+      <c r="K124" s="1">
+        <v>0.23721064814814816</v>
+      </c>
+      <c r="L124" t="s">
+        <v>303</v>
+      </c>
+      <c r="M124" s="2">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>70527</v>
+      </c>
+      <c r="B125" t="s">
+        <v>304</v>
+      </c>
+      <c r="C125" t="s">
+        <v>27</v>
+      </c>
+      <c r="D125" t="s">
+        <v>305</v>
+      </c>
+      <c r="E125">
+        <v>26.9</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125" t="s">
+        <v>17</v>
+      </c>
+      <c r="H125" t="s">
+        <v>36</v>
+      </c>
+      <c r="I125" t="s">
+        <v>305</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125" s="1">
+        <v>0.23600694444444445</v>
+      </c>
+      <c r="L125" t="s">
+        <v>306</v>
+      </c>
+      <c r="M125" s="2">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>70409</v>
+      </c>
+      <c r="B126" t="s">
+        <v>285</v>
+      </c>
+      <c r="C126" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126">
+        <v>500</v>
+      </c>
+      <c r="E126">
+        <v>51.1</v>
+      </c>
+      <c r="F126">
+        <v>500</v>
+      </c>
+      <c r="G126" t="s">
+        <v>22</v>
+      </c>
+      <c r="H126" t="s">
+        <v>23</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126" t="s">
+        <v>307</v>
+      </c>
+      <c r="K126" s="1">
+        <v>0.23550925925925925</v>
+      </c>
+      <c r="L126" t="s">
+        <v>308</v>
+      </c>
+      <c r="M126" s="2">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>71472</v>
+      </c>
+      <c r="B127" t="s">
+        <v>309</v>
+      </c>
+      <c r="C127" t="s">
+        <v>27</v>
+      </c>
+      <c r="D127">
+        <v>5</v>
+      </c>
+      <c r="E127" t="s">
+        <v>310</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127" t="s">
+        <v>17</v>
+      </c>
+      <c r="H127" t="s">
+        <v>36</v>
+      </c>
+      <c r="I127">
+        <v>5</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127" s="1">
+        <v>0.2354050925925926</v>
+      </c>
+      <c r="L127" t="s">
+        <v>311</v>
+      </c>
+      <c r="M127" s="2">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>3616</v>
+      </c>
+      <c r="B128" t="s">
+        <v>312</v>
+      </c>
+      <c r="C128" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128">
+        <v>79</v>
+      </c>
+      <c r="E128">
+        <v>890</v>
+      </c>
+      <c r="F128">
+        <v>79</v>
+      </c>
+      <c r="G128" t="s">
+        <v>22</v>
+      </c>
+      <c r="H128" t="s">
+        <v>23</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128" t="s">
+        <v>313</v>
+      </c>
+      <c r="K128" s="1">
+        <v>0.23516203703703706</v>
+      </c>
+      <c r="L128" t="s">
+        <v>314</v>
+      </c>
+      <c r="M128" s="2">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>70364</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" t="s">
+        <v>60</v>
+      </c>
+      <c r="E129">
+        <v>7</v>
+      </c>
+      <c r="F129" t="s">
+        <v>60</v>
+      </c>
+      <c r="G129" t="s">
+        <v>22</v>
+      </c>
+      <c r="H129" t="s">
+        <v>23</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129" t="s">
+        <v>315</v>
+      </c>
+      <c r="K129" s="1">
+        <v>0.23392361111111112</v>
+      </c>
+      <c r="L129" t="s">
+        <v>316</v>
+      </c>
+      <c r="M129" s="2">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>70364</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" t="s">
+        <v>15</v>
+      </c>
+      <c r="E130">
+        <v>7.1</v>
+      </c>
+      <c r="F130" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" t="s">
+        <v>22</v>
+      </c>
+      <c r="H130" t="s">
+        <v>23</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130" t="s">
+        <v>162</v>
+      </c>
+      <c r="K130" s="1">
+        <v>0.23384259259259257</v>
+      </c>
+      <c r="L130" t="s">
+        <v>317</v>
+      </c>
+      <c r="M130" s="2">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>70364</v>
+      </c>
+      <c r="B131" t="s">
+        <v>78</v>
+      </c>
+      <c r="C131" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131">
+        <v>22.2</v>
+      </c>
+      <c r="F131" t="s">
+        <v>64</v>
+      </c>
+      <c r="G131" t="s">
+        <v>22</v>
+      </c>
+      <c r="H131" t="s">
+        <v>23</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131" t="s">
+        <v>318</v>
+      </c>
+      <c r="K131" s="1">
+        <v>0.23310185185185184</v>
+      </c>
+      <c r="L131" t="s">
+        <v>319</v>
+      </c>
+      <c r="M131" s="2">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>70527</v>
+      </c>
+      <c r="B132" t="s">
+        <v>211</v>
+      </c>
+      <c r="C132" t="s">
+        <v>27</v>
+      </c>
+      <c r="D132" t="s">
+        <v>320</v>
+      </c>
+      <c r="E132">
+        <v>6.9</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132" t="s">
+        <v>17</v>
+      </c>
+      <c r="H132" t="s">
+        <v>36</v>
+      </c>
+      <c r="I132" t="s">
+        <v>320</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132" s="1">
+        <v>0.23248842592592592</v>
+      </c>
+      <c r="L132" t="s">
+        <v>321</v>
+      </c>
+      <c r="M132" s="2">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>71472</v>
+      </c>
+      <c r="B133" t="s">
+        <v>154</v>
+      </c>
+      <c r="C133" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133">
+        <v>200</v>
+      </c>
+      <c r="E133">
+        <v>27</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133" t="s">
+        <v>17</v>
+      </c>
+      <c r="H133" t="s">
+        <v>36</v>
+      </c>
+      <c r="I133">
+        <v>200</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133" s="1">
+        <v>0.23233796296296297</v>
+      </c>
+      <c r="L133" t="s">
+        <v>322</v>
+      </c>
+      <c r="M133" s="2">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>71472</v>
+      </c>
+      <c r="B134" t="s">
+        <v>323</v>
+      </c>
+      <c r="C134" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134">
+        <v>10</v>
+      </c>
+      <c r="E134">
+        <v>779.8</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134" t="s">
+        <v>17</v>
+      </c>
+      <c r="H134" t="s">
+        <v>36</v>
+      </c>
+      <c r="I134">
+        <v>10</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134" s="1">
+        <v>0.23219907407407406</v>
+      </c>
+      <c r="L134" t="s">
+        <v>324</v>
+      </c>
+      <c r="M134" s="2">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>70527</v>
+      </c>
+      <c r="B135" t="s">
+        <v>211</v>
+      </c>
+      <c r="C135" t="s">
+        <v>27</v>
+      </c>
+      <c r="D135" t="s">
+        <v>60</v>
+      </c>
+      <c r="E135">
+        <v>6.8</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135" t="s">
+        <v>17</v>
+      </c>
+      <c r="H135" t="s">
+        <v>36</v>
+      </c>
+      <c r="I135" t="s">
+        <v>60</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135" s="1">
+        <v>0.23194444444444443</v>
+      </c>
+      <c r="L135" t="s">
+        <v>325</v>
+      </c>
+      <c r="M135" s="2">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>70364</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136" t="s">
+        <v>15</v>
+      </c>
+      <c r="E136">
+        <v>7.1</v>
+      </c>
+      <c r="F136" t="s">
+        <v>15</v>
+      </c>
+      <c r="G136" t="s">
+        <v>22</v>
+      </c>
+      <c r="H136" t="s">
+        <v>23</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136" t="s">
+        <v>162</v>
+      </c>
+      <c r="K136" s="1">
+        <v>0.23179398148148148</v>
+      </c>
+      <c r="L136" t="s">
+        <v>326</v>
+      </c>
+      <c r="M136" s="2">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>70364</v>
+      </c>
+      <c r="B137" t="s">
+        <v>327</v>
+      </c>
+      <c r="C137" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137">
+        <v>200</v>
+      </c>
+      <c r="E137">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="F137">
+        <v>200</v>
+      </c>
+      <c r="G137" t="s">
+        <v>22</v>
+      </c>
+      <c r="H137" t="s">
+        <v>23</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137" t="s">
+        <v>328</v>
+      </c>
+      <c r="K137" s="1">
+        <v>0.23149305555555555</v>
+      </c>
+      <c r="L137" t="s">
+        <v>329</v>
+      </c>
+      <c r="M137" s="2">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>70364</v>
+      </c>
+      <c r="B138" t="s">
+        <v>327</v>
+      </c>
+      <c r="C138" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138">
+        <v>500</v>
+      </c>
+      <c r="E138">
+        <v>34</v>
+      </c>
+      <c r="F138">
+        <v>500</v>
+      </c>
+      <c r="G138" t="s">
+        <v>22</v>
+      </c>
+      <c r="H138" t="s">
+        <v>23</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138" t="s">
+        <v>330</v>
+      </c>
+      <c r="K138" s="1">
+        <v>0.23144675925925925</v>
+      </c>
+      <c r="L138" t="s">
+        <v>331</v>
+      </c>
+      <c r="M138" s="2">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>70409</v>
+      </c>
+      <c r="B139" t="s">
+        <v>285</v>
+      </c>
+      <c r="C139" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139">
+        <v>500</v>
+      </c>
+      <c r="E139">
+        <v>51.3</v>
+      </c>
+      <c r="F139">
+        <v>500</v>
+      </c>
+      <c r="G139" t="s">
+        <v>22</v>
+      </c>
+      <c r="H139" t="s">
+        <v>23</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139" t="s">
+        <v>332</v>
+      </c>
+      <c r="K139" s="1">
+        <v>0.23042824074074075</v>
+      </c>
+      <c r="L139" t="s">
+        <v>333</v>
+      </c>
+      <c r="M139" s="2">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>70409</v>
+      </c>
+      <c r="B140" t="s">
+        <v>285</v>
+      </c>
+      <c r="C140" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140">
+        <v>500</v>
+      </c>
+      <c r="E140">
+        <v>51</v>
+      </c>
+      <c r="F140">
+        <v>500</v>
+      </c>
+      <c r="G140" t="s">
+        <v>22</v>
+      </c>
+      <c r="H140" t="s">
+        <v>23</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140" t="s">
+        <v>334</v>
+      </c>
+      <c r="K140" s="1">
+        <v>0.2303125</v>
+      </c>
+      <c r="L140" t="s">
+        <v>335</v>
+      </c>
+      <c r="M140" s="2">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141">
         <v>71487</v>
       </c>
-      <c r="B119" t="s">
-        <v>13</v>
-      </c>
-      <c r="C119" t="s">
-        <v>22</v>
-      </c>
-      <c r="D119">
+      <c r="B141" t="s">
+        <v>336</v>
+      </c>
+      <c r="C141" t="s">
+        <v>27</v>
+      </c>
+      <c r="D141">
+        <v>300</v>
+      </c>
+      <c r="E141">
+        <v>31.3</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141" t="s">
+        <v>17</v>
+      </c>
+      <c r="H141" t="s">
+        <v>36</v>
+      </c>
+      <c r="I141">
+        <v>300</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141" s="1">
+        <v>0.22923611111111111</v>
+      </c>
+      <c r="L141" t="s">
+        <v>337</v>
+      </c>
+      <c r="M141" s="2">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>71487</v>
+      </c>
+      <c r="B142" t="s">
+        <v>336</v>
+      </c>
+      <c r="C142" t="s">
+        <v>27</v>
+      </c>
+      <c r="D142">
         <v>500</v>
       </c>
-      <c r="E119">
-        <v>16.8</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119" t="s">
-        <v>33</v>
-      </c>
-      <c r="H119" t="s">
-        <v>34</v>
-      </c>
-      <c r="I119">
+      <c r="E142">
+        <v>31.8</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142" t="s">
+        <v>17</v>
+      </c>
+      <c r="H142" t="s">
+        <v>36</v>
+      </c>
+      <c r="I142">
         <v>500</v>
       </c>
-      <c r="J119">
-        <v>0</v>
-      </c>
-      <c r="K119" s="1">
-        <v>0.22929398148148147</v>
-      </c>
-      <c r="L119" t="s">
-        <v>273</v>
-      </c>
-      <c r="M119" s="2">
-        <v>43468</v>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142" s="1">
+        <v>0.22923611111111111</v>
+      </c>
+      <c r="L142" t="s">
+        <v>338</v>
+      </c>
+      <c r="M142" s="2">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>71487</v>
+      </c>
+      <c r="B143" t="s">
+        <v>84</v>
+      </c>
+      <c r="C143" t="s">
+        <v>27</v>
+      </c>
+      <c r="D143">
+        <v>100</v>
+      </c>
+      <c r="E143">
+        <v>146.4</v>
+      </c>
+      <c r="F143">
+        <v>100</v>
+      </c>
+      <c r="G143" t="s">
+        <v>22</v>
+      </c>
+      <c r="H143" t="s">
+        <v>23</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143" t="s">
+        <v>339</v>
+      </c>
+      <c r="K143" s="1">
+        <v>0.22923611111111111</v>
+      </c>
+      <c r="L143" t="s">
+        <v>340</v>
+      </c>
+      <c r="M143" s="2">
+        <v>43472</v>
       </c>
     </row>
   </sheetData>
